--- a/data2/All States All Data Collected.xlsx
+++ b/data2/All States All Data Collected.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jillyutahh/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jillyutahh/github/gal/Analyzing-Medicare-Expansion/data2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEB6E32-C624-B941-8EF1-D12A705212E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC4DDF4-0545-D44E-901B-F1C779C05D7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="3580" windowWidth="26840" windowHeight="15940" xr2:uid="{02E46638-B89A-9A4E-94A9-A89CDE14B1CE}"/>
+    <workbookView xWindow="-33040" yWindow="-620" windowWidth="26840" windowHeight="15940" xr2:uid="{02E46638-B89A-9A4E-94A9-A89CDE14B1CE}"/>
   </bookViews>
   <sheets>
     <sheet name="All States" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -240,12 +240,6 @@
     <t>Heart Disease Death Rate per 100,000</t>
   </si>
   <si>
-    <t>% Adults who Smoke</t>
-  </si>
-  <si>
-    <t>% Adults with Diabetes</t>
-  </si>
-  <si>
     <t>% Physical Activity</t>
   </si>
   <si>
@@ -544,6 +538,12 @@
   </si>
   <si>
     <t>Poor Health</t>
+  </si>
+  <si>
+    <t>% Adults, Diabetes</t>
+  </si>
+  <si>
+    <t>% Adults, Smoke</t>
   </si>
 </sst>
 </file>
@@ -553,7 +553,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -609,6 +609,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -632,7 +639,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -646,6 +653,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -965,53 +982,52 @@
   <dimension ref="A1:W52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="4" t="s">
         <v>70</v>
       </c>
+      <c r="D1" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="F1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>68</v>
+        <v>168</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>169</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>67</v>
@@ -1025,11 +1041,11 @@
       <c r="K1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>169</v>
+      <c r="M1" s="12" t="s">
+        <v>167</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>62</v>
@@ -1067,7 +1083,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -1099,39 +1115,39 @@
       <c r="L2" s="1">
         <v>16.5</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="2">
         <f>SUM(N2:O2)</f>
         <v>0.22899999999999998</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="2">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="2">
         <v>0.157</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="2">
         <v>0.34</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="2">
         <v>0.28599999999999998</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="2">
         <v>0.14499999999999999</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="2">
         <v>0.61680000000000001</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2" s="2">
         <v>0.1245</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2" s="2">
         <v>0.10299999999999999</v>
       </c>
-      <c r="V2" s="1">
+      <c r="V2" s="2">
         <v>0.15570000000000001</v>
       </c>
-      <c r="W2">
-        <f>SUM(U2:V2)</f>
+      <c r="W2" s="10">
+        <f t="shared" ref="W2:W33" si="0">SUM(U2:V2)</f>
         <v>0.25869999999999999</v>
       </c>
     </row>
@@ -1140,7 +1156,7 @@
         <v>52</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>21</v>
@@ -1172,39 +1188,39 @@
       <c r="L3" s="1">
         <v>24.6</v>
       </c>
-      <c r="M3" s="1">
-        <f t="shared" ref="M3:M51" si="0">SUM(N3:O3)</f>
+      <c r="M3" s="2">
+        <f t="shared" ref="M3:M51" si="1">SUM(N3:O3)</f>
         <v>0.156</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="2">
         <v>0.113</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="2">
         <v>0.316</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="2">
         <v>0.313</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="2">
         <v>0.214</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="2">
         <v>0.6462</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3" s="2">
         <v>0.13800000000000001</v>
       </c>
-      <c r="U3" s="1">
+      <c r="U3" s="2">
         <v>0.10630000000000001</v>
       </c>
-      <c r="V3" s="1">
+      <c r="V3" s="2">
         <v>0.1095</v>
       </c>
-      <c r="W3">
-        <f>SUM(U3:V3)</f>
+      <c r="W3" s="10">
+        <f t="shared" si="0"/>
         <v>0.21579999999999999</v>
       </c>
     </row>
@@ -1213,7 +1229,7 @@
         <v>51</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
@@ -1245,39 +1261,39 @@
       <c r="L4" s="1">
         <v>19.2</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.315</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.187</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.65739999999999998</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.1227</v>
+      </c>
+      <c r="U4" s="2">
+        <v>9.4600000000000004E-2</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0.12529999999999999</v>
+      </c>
+      <c r="W4" s="10">
         <f t="shared" si="0"/>
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0.315</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="R4" s="1">
-        <v>0.187</v>
-      </c>
-      <c r="S4" s="1">
-        <v>0.65739999999999998</v>
-      </c>
-      <c r="T4" s="1">
-        <v>0.1227</v>
-      </c>
-      <c r="U4" s="1">
-        <v>9.4600000000000004E-2</v>
-      </c>
-      <c r="V4" s="1">
-        <v>0.12529999999999999</v>
-      </c>
-      <c r="W4">
-        <f>SUM(U4:V4)</f>
         <v>0.21989999999999998</v>
       </c>
     </row>
@@ -1286,7 +1302,7 @@
         <v>50</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>21</v>
@@ -1318,39 +1334,39 @@
       <c r="L5" s="1">
         <v>18.3</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.247</v>
+      </c>
+      <c r="N5" s="2">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.60580000000000001</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.126</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.1082</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="W5" s="10">
         <f t="shared" si="0"/>
-        <v>0.247</v>
-      </c>
-      <c r="N5" s="1">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="R5" s="1">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="S5" s="1">
-        <v>0.60580000000000001</v>
-      </c>
-      <c r="T5" s="1">
-        <v>0.126</v>
-      </c>
-      <c r="U5" s="1">
-        <v>0.1082</v>
-      </c>
-      <c r="V5" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="W5">
-        <f>SUM(U5:V5)</f>
         <v>0.26819999999999999</v>
       </c>
     </row>
@@ -1359,7 +1375,7 @@
         <v>49</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>21</v>
@@ -1391,39 +1407,39 @@
       <c r="L6" s="1">
         <v>10.9</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.18100000000000002</v>
+      </c>
+      <c r="N6" s="2">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.185</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.63170000000000004</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0.10829999999999999</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0.1139</v>
+      </c>
+      <c r="W6" s="10">
         <f t="shared" si="0"/>
-        <v>0.18100000000000002</v>
-      </c>
-      <c r="N6" s="1">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0.185</v>
-      </c>
-      <c r="S6" s="1">
-        <v>0.63170000000000004</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="U6" s="1">
-        <v>0.10829999999999999</v>
-      </c>
-      <c r="V6" s="1">
-        <v>0.1139</v>
-      </c>
-      <c r="W6">
-        <f>SUM(U6:V6)</f>
         <v>0.22220000000000001</v>
       </c>
     </row>
@@ -1432,7 +1448,7 @@
         <v>48</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>21</v>
@@ -1464,39 +1480,39 @@
       <c r="L7" s="1">
         <v>21.9</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N7" s="2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.111</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0.61960000000000004</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0.15459999999999999</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0.1148</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0.111</v>
+      </c>
+      <c r="W7" s="10">
         <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="N7" s="1">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0.111</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="R7" s="1">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="S7" s="1">
-        <v>0.61960000000000004</v>
-      </c>
-      <c r="T7" s="1">
-        <v>0.15459999999999999</v>
-      </c>
-      <c r="U7" s="1">
-        <v>0.1148</v>
-      </c>
-      <c r="V7" s="1">
-        <v>0.111</v>
-      </c>
-      <c r="W7">
-        <f>SUM(U7:V7)</f>
         <v>0.2258</v>
       </c>
     </row>
@@ -1505,7 +1521,7 @@
         <v>47</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>21</v>
@@ -1537,39 +1553,39 @@
       <c r="L8" s="1">
         <v>10.6</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="N8" s="2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.106</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0.214</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0.66369999999999996</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0.1326</v>
+      </c>
+      <c r="U8" s="2">
+        <v>9.3899999999999997E-2</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0.10979999999999999</v>
+      </c>
+      <c r="W8" s="10">
         <f t="shared" si="0"/>
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="N8" s="1">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0.106</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="R8" s="1">
-        <v>0.214</v>
-      </c>
-      <c r="S8" s="1">
-        <v>0.66369999999999996</v>
-      </c>
-      <c r="T8" s="1">
-        <v>0.1326</v>
-      </c>
-      <c r="U8" s="1">
-        <v>9.3899999999999997E-2</v>
-      </c>
-      <c r="V8" s="1">
-        <v>0.10979999999999999</v>
-      </c>
-      <c r="W8">
-        <f>SUM(U8:V8)</f>
         <v>0.20369999999999999</v>
       </c>
     </row>
@@ -1578,7 +1594,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>21</v>
@@ -1610,39 +1626,39 @@
       <c r="L9" s="1">
         <v>11.4</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="N9" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0.184</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0.12330000000000001</v>
+      </c>
+      <c r="U9" s="2">
+        <v>8.4500000000000006E-2</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0.12429999999999999</v>
+      </c>
+      <c r="W9" s="10">
         <f t="shared" si="0"/>
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="N9" s="1">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="R9" s="1">
-        <v>0.184</v>
-      </c>
-      <c r="S9" s="1">
-        <v>0.66800000000000004</v>
-      </c>
-      <c r="T9" s="1">
-        <v>0.12330000000000001</v>
-      </c>
-      <c r="U9" s="1">
-        <v>8.4500000000000006E-2</v>
-      </c>
-      <c r="V9" s="1">
-        <v>0.12429999999999999</v>
-      </c>
-      <c r="W9">
-        <f>SUM(U9:V9)</f>
         <v>0.20879999999999999</v>
       </c>
     </row>
@@ -1651,7 +1667,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>0</v>
@@ -1683,39 +1699,39 @@
       <c r="L10" s="1">
         <v>15.2</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="N10" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.316</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0.189</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0.67620000000000002</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0.115</v>
+      </c>
+      <c r="U10" s="2">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0.128</v>
+      </c>
+      <c r="W10" s="10">
         <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="N10" s="1">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0.316</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="R10" s="1">
-        <v>0.189</v>
-      </c>
-      <c r="S10" s="1">
-        <v>0.67620000000000002</v>
-      </c>
-      <c r="T10" s="1">
-        <v>0.115</v>
-      </c>
-      <c r="U10" s="1">
-        <v>8.0699999999999994E-2</v>
-      </c>
-      <c r="V10" s="1">
-        <v>0.128</v>
-      </c>
-      <c r="W10">
-        <f>SUM(U10:V10)</f>
         <v>0.2087</v>
       </c>
     </row>
@@ -1724,7 +1740,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
@@ -1756,39 +1772,39 @@
       <c r="L11" s="1">
         <v>14.6</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.191</v>
+      </c>
+      <c r="N11" s="2">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0.64629999999999999</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0.1273</v>
+      </c>
+      <c r="U11" s="2">
+        <v>9.5699999999999993E-2</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0.13070000000000001</v>
+      </c>
+      <c r="W11" s="10">
         <f t="shared" si="0"/>
-        <v>0.191</v>
-      </c>
-      <c r="N11" s="1">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="R11" s="1">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="S11" s="1">
-        <v>0.64629999999999999</v>
-      </c>
-      <c r="T11" s="1">
-        <v>0.1273</v>
-      </c>
-      <c r="U11" s="1">
-        <v>9.5699999999999993E-2</v>
-      </c>
-      <c r="V11" s="1">
-        <v>0.13070000000000001</v>
-      </c>
-      <c r="W11">
-        <f>SUM(U11:V11)</f>
         <v>0.22639999999999999</v>
       </c>
     </row>
@@ -1797,7 +1813,7 @@
         <v>45</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>21</v>
@@ -1829,39 +1845,39 @@
       <c r="L12" s="1">
         <v>11.9</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="N12" s="2">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0.187</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0.68269999999999997</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0.1283</v>
+      </c>
+      <c r="U12" s="2">
+        <v>8.9599999999999999E-2</v>
+      </c>
+      <c r="V12" s="2">
+        <v>9.9400000000000002E-2</v>
+      </c>
+      <c r="W12" s="10">
         <f t="shared" si="0"/>
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="N12" s="1">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="P12" s="1">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="R12" s="1">
-        <v>0.187</v>
-      </c>
-      <c r="S12" s="1">
-        <v>0.68269999999999997</v>
-      </c>
-      <c r="T12" s="1">
-        <v>0.1283</v>
-      </c>
-      <c r="U12" s="1">
-        <v>8.9599999999999999E-2</v>
-      </c>
-      <c r="V12" s="1">
-        <v>9.9400000000000002E-2</v>
-      </c>
-      <c r="W12">
-        <f>SUM(U12:V12)</f>
         <v>0.189</v>
       </c>
     </row>
@@ -1870,7 +1886,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
@@ -1902,39 +1918,39 @@
       <c r="L13" s="1">
         <v>23.9</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.159</v>
+      </c>
+      <c r="N13" s="2">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.315</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0.186</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0.61460000000000004</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0.14480000000000001</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0.12180000000000001</v>
+      </c>
+      <c r="V13" s="2">
+        <v>0.1188</v>
+      </c>
+      <c r="W13" s="10">
         <f t="shared" si="0"/>
-        <v>0.159</v>
-      </c>
-      <c r="N13" s="1">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="O13" s="1">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="P13" s="1">
-        <v>0.315</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="R13" s="1">
-        <v>0.186</v>
-      </c>
-      <c r="S13" s="1">
-        <v>0.61460000000000004</v>
-      </c>
-      <c r="T13" s="1">
-        <v>0.14480000000000001</v>
-      </c>
-      <c r="U13" s="1">
-        <v>0.12180000000000001</v>
-      </c>
-      <c r="V13" s="1">
-        <v>0.1188</v>
-      </c>
-      <c r="W13">
-        <f>SUM(U13:V13)</f>
         <v>0.24060000000000001</v>
       </c>
     </row>
@@ -1943,7 +1959,7 @@
         <v>44</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>21</v>
@@ -1975,39 +1991,39 @@
       <c r="L14" s="1">
         <v>11.3</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="N14" s="2">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0.127</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0.315</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0.183</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0.1366</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0.11020000000000001</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0.1142</v>
+      </c>
+      <c r="W14" s="10">
         <f t="shared" si="0"/>
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="N14" s="1">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0.127</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>0.315</v>
-      </c>
-      <c r="R14" s="1">
-        <v>0.183</v>
-      </c>
-      <c r="S14" s="1">
-        <v>0.63900000000000001</v>
-      </c>
-      <c r="T14" s="1">
-        <v>0.1366</v>
-      </c>
-      <c r="U14" s="1">
-        <v>0.11020000000000001</v>
-      </c>
-      <c r="V14" s="1">
-        <v>0.1142</v>
-      </c>
-      <c r="W14">
-        <f>SUM(U14:V14)</f>
         <v>0.22439999999999999</v>
       </c>
     </row>
@@ -2016,7 +2032,7 @@
         <v>43</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>21</v>
@@ -2048,39 +2064,39 @@
       <c r="L15" s="1">
         <v>16</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.193</v>
+      </c>
+      <c r="N15" s="2">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0.154</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0.61470000000000002</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0.1323</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0.1099</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0.14319999999999999</v>
+      </c>
+      <c r="W15" s="10">
         <f t="shared" si="0"/>
-        <v>0.193</v>
-      </c>
-      <c r="N15" s="1">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="P15" s="1">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="R15" s="1">
-        <v>0.154</v>
-      </c>
-      <c r="S15" s="1">
-        <v>0.61470000000000002</v>
-      </c>
-      <c r="T15" s="1">
-        <v>0.1323</v>
-      </c>
-      <c r="U15" s="1">
-        <v>0.1099</v>
-      </c>
-      <c r="V15" s="1">
-        <v>0.14319999999999999</v>
-      </c>
-      <c r="W15">
-        <f>SUM(U15:V15)</f>
         <v>0.25309999999999999</v>
       </c>
     </row>
@@ -2089,7 +2105,7 @@
         <v>42</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>21</v>
@@ -2121,39 +2137,39 @@
       <c r="L16" s="1">
         <v>15.5</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14200000000000002</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0.112</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0.372</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0.161</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0.64929999999999999</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0.15409999999999999</v>
+      </c>
+      <c r="U16" s="2">
+        <v>9.4700000000000006E-2</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0.1018</v>
+      </c>
+      <c r="W16" s="10">
         <f t="shared" si="0"/>
-        <v>0.14200000000000002</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="O16" s="1">
-        <v>0.112</v>
-      </c>
-      <c r="P16" s="1">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>0.372</v>
-      </c>
-      <c r="R16" s="1">
-        <v>0.161</v>
-      </c>
-      <c r="S16" s="1">
-        <v>0.64929999999999999</v>
-      </c>
-      <c r="T16" s="1">
-        <v>0.15409999999999999</v>
-      </c>
-      <c r="U16" s="1">
-        <v>9.4700000000000006E-2</v>
-      </c>
-      <c r="V16" s="1">
-        <v>0.1018</v>
-      </c>
-      <c r="W16">
-        <f>SUM(U16:V16)</f>
         <v>0.19650000000000001</v>
       </c>
     </row>
@@ -2162,7 +2178,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>0</v>
@@ -2194,39 +2210,39 @@
       <c r="L17" s="1">
         <v>19.3</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16999999999999998</v>
+      </c>
+      <c r="N17" s="2">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0.126</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0.64839999999999998</v>
+      </c>
+      <c r="T17" s="2">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="U17" s="2">
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="V17" s="2">
+        <v>0.12470000000000001</v>
+      </c>
+      <c r="W17" s="10">
         <f t="shared" si="0"/>
-        <v>0.16999999999999998</v>
-      </c>
-      <c r="N17" s="1">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="O17" s="1">
-        <v>0.126</v>
-      </c>
-      <c r="P17" s="1">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="R17" s="1">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="S17" s="1">
-        <v>0.64839999999999998</v>
-      </c>
-      <c r="T17" s="1">
-        <v>0.13250000000000001</v>
-      </c>
-      <c r="U17" s="1">
-        <v>9.4500000000000001E-2</v>
-      </c>
-      <c r="V17" s="1">
-        <v>0.12470000000000001</v>
-      </c>
-      <c r="W17">
-        <f>SUM(U17:V17)</f>
         <v>0.21920000000000001</v>
       </c>
     </row>
@@ -2235,7 +2251,7 @@
         <v>41</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>21</v>
@@ -2267,39 +2283,39 @@
       <c r="L18" s="1">
         <v>17.5</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="N18" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0.61380000000000001</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0.12239999999999999</v>
+      </c>
+      <c r="U18" s="2">
+        <v>9.69E-2</v>
+      </c>
+      <c r="V18" s="2">
+        <v>0.16689999999999999</v>
+      </c>
+      <c r="W18" s="10">
         <f t="shared" si="0"/>
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="N18" s="1">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="O18" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="P18" s="1">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="R18" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="S18" s="1">
-        <v>0.61380000000000001</v>
-      </c>
-      <c r="T18" s="1">
-        <v>0.12239999999999999</v>
-      </c>
-      <c r="U18" s="1">
-        <v>9.69E-2</v>
-      </c>
-      <c r="V18" s="1">
-        <v>0.16689999999999999</v>
-      </c>
-      <c r="W18">
-        <f>SUM(U18:V18)</f>
         <v>0.26379999999999998</v>
       </c>
     </row>
@@ -2308,7 +2324,7 @@
         <v>40</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>21</v>
@@ -2340,39 +2356,39 @@
       <c r="L19" s="1">
         <v>15.1</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.221</v>
+      </c>
+      <c r="N19" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0.156</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.312</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="R19" s="2">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0.59660000000000002</v>
+      </c>
+      <c r="T19" s="2">
+        <v>0.1285</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0.1176</v>
+      </c>
+      <c r="V19" s="2">
+        <v>0.1573</v>
+      </c>
+      <c r="W19" s="10">
         <f t="shared" si="0"/>
-        <v>0.221</v>
-      </c>
-      <c r="N19" s="1">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="O19" s="1">
-        <v>0.156</v>
-      </c>
-      <c r="P19" s="1">
-        <v>0.312</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="R19" s="1">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="S19" s="1">
-        <v>0.59660000000000002</v>
-      </c>
-      <c r="T19" s="1">
-        <v>0.1285</v>
-      </c>
-      <c r="U19" s="1">
-        <v>0.1176</v>
-      </c>
-      <c r="V19" s="1">
-        <v>0.1573</v>
-      </c>
-      <c r="W19">
-        <f>SUM(U19:V19)</f>
         <v>0.27489999999999998</v>
       </c>
     </row>
@@ -2381,7 +2397,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>14</v>
@@ -2413,39 +2429,39 @@
       <c r="L20" s="1">
         <v>18.5</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+      <c r="N20" s="2">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0.61380000000000001</v>
+      </c>
+      <c r="T20" s="2">
+        <v>0.14069999999999999</v>
+      </c>
+      <c r="U20" s="2">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="V20" s="2">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="W20" s="10">
         <f t="shared" si="0"/>
-        <v>0.18</v>
-      </c>
-      <c r="N20" s="1">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="O20" s="1">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="P20" s="1">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="R20" s="1">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="S20" s="1">
-        <v>0.61380000000000001</v>
-      </c>
-      <c r="T20" s="1">
-        <v>0.14069999999999999</v>
-      </c>
-      <c r="U20" s="1">
-        <v>0.10249999999999999</v>
-      </c>
-      <c r="V20" s="1">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="W20">
-        <f>SUM(U20:V20)</f>
         <v>0.2455</v>
       </c>
     </row>
@@ -2454,7 +2470,7 @@
         <v>39</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>21</v>
@@ -2486,39 +2502,39 @@
       <c r="L21" s="1">
         <v>10.199999999999999</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="2">
+        <f t="shared" si="1"/>
+        <v>0.159</v>
+      </c>
+      <c r="N21" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0.121</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0.317</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0.64729999999999999</v>
+      </c>
+      <c r="T21" s="2">
+        <v>0.13350000000000001</v>
+      </c>
+      <c r="U21" s="2">
+        <v>0.1079</v>
+      </c>
+      <c r="V21" s="2">
+        <v>0.1113</v>
+      </c>
+      <c r="W21" s="10">
         <f t="shared" si="0"/>
-        <v>0.159</v>
-      </c>
-      <c r="N21" s="1">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="O21" s="1">
-        <v>0.121</v>
-      </c>
-      <c r="P21" s="1">
-        <v>0.317</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="R21" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="S21" s="1">
-        <v>0.64729999999999999</v>
-      </c>
-      <c r="T21" s="1">
-        <v>0.13350000000000001</v>
-      </c>
-      <c r="U21" s="1">
-        <v>0.1079</v>
-      </c>
-      <c r="V21" s="1">
-        <v>0.1113</v>
-      </c>
-      <c r="W21">
-        <f>SUM(U21:V21)</f>
         <v>0.21920000000000001</v>
       </c>
     </row>
@@ -2527,7 +2543,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>21</v>
@@ -2559,39 +2575,39 @@
       <c r="L22" s="1">
         <v>9.9</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14200000000000002</v>
+      </c>
+      <c r="N22" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0.107</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="T22" s="2">
+        <v>0.1515</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0.1176</v>
+      </c>
+      <c r="V22" s="2">
+        <v>0.12790000000000001</v>
+      </c>
+      <c r="W22" s="10">
         <f t="shared" si="0"/>
-        <v>0.14200000000000002</v>
-      </c>
-      <c r="N22" s="1">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="O22" s="1">
-        <v>0.107</v>
-      </c>
-      <c r="P22" s="1">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="R22" s="1">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="S22" s="1">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="T22" s="1">
-        <v>0.1515</v>
-      </c>
-      <c r="U22" s="1">
-        <v>0.1176</v>
-      </c>
-      <c r="V22" s="1">
-        <v>0.12790000000000001</v>
-      </c>
-      <c r="W22">
-        <f>SUM(U22:V22)</f>
         <v>0.2455</v>
       </c>
     </row>
@@ -2600,7 +2616,7 @@
         <v>37</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>21</v>
@@ -2632,39 +2648,39 @@
       <c r="L23" s="1">
         <v>15</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="2">
+        <f t="shared" si="1"/>
+        <v>0.192</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="R23" s="2">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0.60109999999999997</v>
+      </c>
+      <c r="T23" s="2">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0.1132</v>
+      </c>
+      <c r="V23" s="2">
+        <v>0.14269999999999999</v>
+      </c>
+      <c r="W23" s="10">
         <f t="shared" si="0"/>
-        <v>0.192</v>
-      </c>
-      <c r="N23" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="O23" s="1">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="P23" s="1">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="R23" s="1">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="S23" s="1">
-        <v>0.60109999999999997</v>
-      </c>
-      <c r="T23" s="1">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="U23" s="1">
-        <v>0.1132</v>
-      </c>
-      <c r="V23" s="1">
-        <v>0.14269999999999999</v>
-      </c>
-      <c r="W23">
-        <f>SUM(U23:V23)</f>
         <v>0.25590000000000002</v>
       </c>
     </row>
@@ -2673,7 +2689,7 @@
         <v>36</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>21</v>
@@ -2705,39 +2721,39 @@
       <c r="L24" s="1">
         <v>13.1</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="2">
+        <f t="shared" si="1"/>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="N24" s="2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0.309</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0.191</v>
+      </c>
+      <c r="S24" s="2">
+        <v>0.65229999999999999</v>
+      </c>
+      <c r="T24" s="2">
+        <v>0.14910000000000001</v>
+      </c>
+      <c r="U24" s="2">
+        <v>9.3799999999999994E-2</v>
+      </c>
+      <c r="V24" s="2">
+        <v>0.10489999999999999</v>
+      </c>
+      <c r="W24" s="10">
         <f t="shared" si="0"/>
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="N24" s="1">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="O24" s="1">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="P24" s="1">
-        <v>0.309</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="R24" s="1">
-        <v>0.191</v>
-      </c>
-      <c r="S24" s="1">
-        <v>0.65229999999999999</v>
-      </c>
-      <c r="T24" s="1">
-        <v>0.14910000000000001</v>
-      </c>
-      <c r="U24" s="1">
-        <v>9.3799999999999994E-2</v>
-      </c>
-      <c r="V24" s="1">
-        <v>0.10489999999999999</v>
-      </c>
-      <c r="W24">
-        <f>SUM(U24:V24)</f>
         <v>0.19869999999999999</v>
       </c>
     </row>
@@ -2746,7 +2762,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>0</v>
@@ -2778,39 +2794,39 @@
       <c r="L25" s="1">
         <v>13.8</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="2">
+        <f t="shared" si="1"/>
+        <v>0.23299999999999998</v>
+      </c>
+      <c r="N25" s="2">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0.151</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="R25" s="2">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="S25" s="2">
+        <v>0.65459999999999996</v>
+      </c>
+      <c r="T25" s="2">
+        <v>0.1066</v>
+      </c>
+      <c r="U25" s="2">
+        <v>8.3799999999999999E-2</v>
+      </c>
+      <c r="V25" s="2">
+        <v>0.15490000000000001</v>
+      </c>
+      <c r="W25" s="10">
         <f t="shared" si="0"/>
-        <v>0.23299999999999998</v>
-      </c>
-      <c r="N25" s="1">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="O25" s="1">
-        <v>0.151</v>
-      </c>
-      <c r="P25" s="1">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="R25" s="1">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="S25" s="1">
-        <v>0.65459999999999996</v>
-      </c>
-      <c r="T25" s="1">
-        <v>0.1066</v>
-      </c>
-      <c r="U25" s="1">
-        <v>8.3799999999999999E-2</v>
-      </c>
-      <c r="V25" s="1">
-        <v>0.15490000000000001</v>
-      </c>
-      <c r="W25">
-        <f>SUM(U25:V25)</f>
         <v>0.23870000000000002</v>
       </c>
     </row>
@@ -2819,7 +2835,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>0</v>
@@ -2851,39 +2867,39 @@
       <c r="L26" s="1">
         <v>19.5</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="N26" s="2">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0.311</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="R26" s="2">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="S26" s="2">
+        <v>0.6351</v>
+      </c>
+      <c r="T26" s="2">
+        <v>0.12859999999999999</v>
+      </c>
+      <c r="U26" s="2">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="V26" s="2">
+        <v>0.14380000000000001</v>
+      </c>
+      <c r="W26" s="10">
         <f t="shared" si="0"/>
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="N26" s="1">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="O26" s="1">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="P26" s="1">
-        <v>0.311</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="R26" s="1">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="S26" s="1">
-        <v>0.6351</v>
-      </c>
-      <c r="T26" s="1">
-        <v>0.12859999999999999</v>
-      </c>
-      <c r="U26" s="1">
-        <v>9.2499999999999999E-2</v>
-      </c>
-      <c r="V26" s="1">
-        <v>0.14380000000000001</v>
-      </c>
-      <c r="W26">
-        <f>SUM(U26:V26)</f>
         <v>0.23630000000000001</v>
       </c>
     </row>
@@ -2892,7 +2908,7 @@
         <v>35</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>21</v>
@@ -2924,39 +2940,39 @@
       <c r="L27" s="1">
         <v>24.9</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="N27" s="2">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0.106</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="R27" s="2">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="S27" s="2">
+        <v>0.64410000000000001</v>
+      </c>
+      <c r="T27" s="2">
+        <v>0.1477</v>
+      </c>
+      <c r="U27" s="2">
+        <v>9.0300000000000005E-2</v>
+      </c>
+      <c r="V27" s="2">
+        <v>0.1179</v>
+      </c>
+      <c r="W27" s="10">
         <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-      <c r="N27" s="1">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="O27" s="1">
-        <v>0.106</v>
-      </c>
-      <c r="P27" s="1">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="R27" s="1">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="S27" s="1">
-        <v>0.64410000000000001</v>
-      </c>
-      <c r="T27" s="1">
-        <v>0.1477</v>
-      </c>
-      <c r="U27" s="1">
-        <v>9.0300000000000005E-2</v>
-      </c>
-      <c r="V27" s="1">
-        <v>0.1179</v>
-      </c>
-      <c r="W27">
-        <f>SUM(U27:V27)</f>
         <v>0.2082</v>
       </c>
     </row>
@@ -2965,7 +2981,7 @@
         <v>18</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>14</v>
@@ -2997,39 +3013,39 @@
       <c r="L28" s="1">
         <v>13.4</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14500000000000002</v>
+      </c>
+      <c r="N28" s="2">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0.112</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="R28" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="S28" s="2">
+        <v>0.65780000000000005</v>
+      </c>
+      <c r="T28" s="2">
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="U28" s="2">
+        <v>9.2700000000000005E-2</v>
+      </c>
+      <c r="V28" s="2">
+        <v>0.112</v>
+      </c>
+      <c r="W28" s="10">
         <f t="shared" si="0"/>
-        <v>0.14500000000000002</v>
-      </c>
-      <c r="N28" s="1">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="O28" s="1">
-        <v>0.112</v>
-      </c>
-      <c r="P28" s="1">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="R28" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="S28" s="1">
-        <v>0.65780000000000005</v>
-      </c>
-      <c r="T28" s="1">
-        <v>0.13750000000000001</v>
-      </c>
-      <c r="U28" s="1">
-        <v>9.2700000000000005E-2</v>
-      </c>
-      <c r="V28" s="1">
-        <v>0.112</v>
-      </c>
-      <c r="W28">
-        <f>SUM(U28:V28)</f>
         <v>0.20469999999999999</v>
       </c>
     </row>
@@ -3038,7 +3054,7 @@
         <v>34</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>21</v>
@@ -3070,39 +3086,39 @@
       <c r="L29" s="1">
         <v>20.8</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="N29" s="2">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R29" s="2">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="S29" s="2">
+        <v>0.64929999999999999</v>
+      </c>
+      <c r="T29" s="2">
+        <v>0.1212</v>
+      </c>
+      <c r="U29" s="2">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="V29" s="2">
+        <v>0.13150000000000001</v>
+      </c>
+      <c r="W29" s="10">
         <f t="shared" si="0"/>
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="N29" s="1">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="O29" s="1">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="P29" s="1">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="R29" s="1">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="S29" s="1">
-        <v>0.64929999999999999</v>
-      </c>
-      <c r="T29" s="1">
-        <v>0.1212</v>
-      </c>
-      <c r="U29" s="1">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="V29" s="1">
-        <v>0.13150000000000001</v>
-      </c>
-      <c r="W29">
-        <f>SUM(U29:V29)</f>
         <v>0.22950000000000001</v>
       </c>
     </row>
@@ -3111,7 +3127,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>21</v>
@@ -3143,39 +3159,39 @@
       <c r="L30" s="1">
         <v>19.399999999999999</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="2">
+        <f t="shared" si="1"/>
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="N30" s="2">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="O30" s="2">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0.308</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="R30" s="2">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="S30" s="2">
+        <v>0.63480000000000003</v>
+      </c>
+      <c r="T30" s="2">
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="U30" s="2">
+        <v>8.48E-2</v>
+      </c>
+      <c r="V30" s="2">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="W30" s="10">
         <f t="shared" si="0"/>
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="N30" s="1">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="O30" s="1">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="P30" s="1">
-        <v>0.308</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="R30" s="1">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="S30" s="1">
-        <v>0.63480000000000003</v>
-      </c>
-      <c r="T30" s="1">
-        <v>0.14249999999999999</v>
-      </c>
-      <c r="U30" s="1">
-        <v>8.48E-2</v>
-      </c>
-      <c r="V30" s="1">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="W30">
-        <f>SUM(U30:V30)</f>
         <v>0.2228</v>
       </c>
     </row>
@@ -3184,7 +3200,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>21</v>
@@ -3216,39 +3232,39 @@
       <c r="L31" s="1">
         <v>8.3000000000000007</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0.127</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="R31" s="2">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="S31" s="2">
+        <v>0.67259999999999998</v>
+      </c>
+      <c r="T31" s="2">
+        <v>0.1135</v>
+      </c>
+      <c r="U31" s="2">
+        <v>0.1007</v>
+      </c>
+      <c r="V31" s="2">
+        <v>0.1132</v>
+      </c>
+      <c r="W31" s="10">
         <f t="shared" si="0"/>
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="N31" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="O31" s="1">
-        <v>0.127</v>
-      </c>
-      <c r="P31" s="1">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="R31" s="1">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="S31" s="1">
-        <v>0.67259999999999998</v>
-      </c>
-      <c r="T31" s="1">
-        <v>0.1135</v>
-      </c>
-      <c r="U31" s="1">
-        <v>0.1007</v>
-      </c>
-      <c r="V31" s="1">
-        <v>0.1132</v>
-      </c>
-      <c r="W31">
-        <f>SUM(U31:V31)</f>
         <v>0.21389999999999998</v>
       </c>
     </row>
@@ -3257,7 +3273,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>21</v>
@@ -3289,39 +3305,39 @@
       <c r="L32" s="1">
         <v>25</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="2">
+        <f t="shared" si="1"/>
+        <v>0.216</v>
+      </c>
+      <c r="N32" s="2">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="R32" s="2">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="S32" s="2">
+        <v>0.64039999999999997</v>
+      </c>
+      <c r="T32" s="2">
+        <v>0.11749999999999999</v>
+      </c>
+      <c r="U32" s="2">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="V32" s="2">
+        <v>0.14330000000000001</v>
+      </c>
+      <c r="W32" s="10">
         <f t="shared" si="0"/>
-        <v>0.216</v>
-      </c>
-      <c r="N32" s="1">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="O32" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="P32" s="1">
-        <v>0.34</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="R32" s="1">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="S32" s="1">
-        <v>0.64039999999999997</v>
-      </c>
-      <c r="T32" s="1">
-        <v>0.11749999999999999</v>
-      </c>
-      <c r="U32" s="1">
-        <v>9.8799999999999999E-2</v>
-      </c>
-      <c r="V32" s="1">
-        <v>0.14330000000000001</v>
-      </c>
-      <c r="W32">
-        <f>SUM(U32:V32)</f>
         <v>0.24210000000000001</v>
       </c>
     </row>
@@ -3330,7 +3346,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>21</v>
@@ -3362,39 +3378,39 @@
       <c r="L33" s="1">
         <v>8.3000000000000007</v>
       </c>
-      <c r="M33" s="1">
+      <c r="M33" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16999999999999998</v>
+      </c>
+      <c r="N33" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0.127</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0.312</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="R33" s="2">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="S33" s="2">
+        <v>0.66449999999999998</v>
+      </c>
+      <c r="T33" s="2">
+        <v>0.13239999999999999</v>
+      </c>
+      <c r="U33" s="2">
+        <v>9.35E-2</v>
+      </c>
+      <c r="V33" s="2">
+        <v>0.1096</v>
+      </c>
+      <c r="W33" s="10">
         <f t="shared" si="0"/>
-        <v>0.16999999999999998</v>
-      </c>
-      <c r="N33" s="1">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="O33" s="1">
-        <v>0.127</v>
-      </c>
-      <c r="P33" s="1">
-        <v>0.312</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="R33" s="1">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="S33" s="1">
-        <v>0.66449999999999998</v>
-      </c>
-      <c r="T33" s="1">
-        <v>0.13239999999999999</v>
-      </c>
-      <c r="U33" s="1">
-        <v>9.35E-2</v>
-      </c>
-      <c r="V33" s="1">
-        <v>0.1096</v>
-      </c>
-      <c r="W33">
-        <f>SUM(U33:V33)</f>
         <v>0.2031</v>
       </c>
     </row>
@@ -3403,7 +3419,7 @@
         <v>7</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>0</v>
@@ -3435,39 +3451,39 @@
       <c r="L34" s="1">
         <v>13.7</v>
       </c>
-      <c r="M34" s="1">
-        <f t="shared" si="0"/>
+      <c r="M34" s="2">
+        <f t="shared" si="1"/>
         <v>0.191</v>
       </c>
-      <c r="N34" s="1">
+      <c r="N34" s="2">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="O34" s="1">
+      <c r="O34" s="2">
         <v>0.13700000000000001</v>
       </c>
-      <c r="P34" s="1">
+      <c r="P34" s="2">
         <v>0.32100000000000001</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="Q34" s="2">
         <v>0.315</v>
       </c>
-      <c r="R34" s="1">
+      <c r="R34" s="2">
         <v>0.17299999999999999</v>
       </c>
-      <c r="S34" s="1">
+      <c r="S34" s="2">
         <v>0.65549999999999997</v>
       </c>
-      <c r="T34" s="1">
+      <c r="T34" s="2">
         <v>0.12939999999999999</v>
       </c>
-      <c r="U34" s="1">
+      <c r="U34" s="2">
         <v>9.1700000000000004E-2</v>
       </c>
-      <c r="V34" s="1">
+      <c r="V34" s="2">
         <v>0.1234</v>
       </c>
-      <c r="W34">
-        <f>SUM(U34:V34)</f>
+      <c r="W34" s="10">
+        <f t="shared" ref="W34:W65" si="2">SUM(U34:V34)</f>
         <v>0.21510000000000001</v>
       </c>
     </row>
@@ -3476,7 +3492,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>21</v>
@@ -3508,39 +3524,39 @@
       <c r="L35" s="1">
         <v>19.2</v>
       </c>
-      <c r="M35" s="1">
-        <f t="shared" si="0"/>
+      <c r="M35" s="2">
+        <f t="shared" si="1"/>
         <v>0.13800000000000001</v>
       </c>
-      <c r="N35" s="1">
+      <c r="N35" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="O35" s="1">
+      <c r="O35" s="2">
         <v>0.107</v>
       </c>
-      <c r="P35" s="1">
+      <c r="P35" s="2">
         <v>0.34</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="Q35" s="2">
         <v>0.35</v>
       </c>
-      <c r="R35" s="1">
+      <c r="R35" s="2">
         <v>0.17100000000000001</v>
       </c>
-      <c r="S35" s="1">
+      <c r="S35" s="2">
         <v>0.63390000000000002</v>
       </c>
-      <c r="T35" s="1">
+      <c r="T35" s="2">
         <v>0.14960000000000001</v>
       </c>
-      <c r="U35" s="1">
+      <c r="U35" s="2">
         <v>0.1018</v>
       </c>
-      <c r="V35" s="1">
+      <c r="V35" s="2">
         <v>0.1147</v>
       </c>
-      <c r="W35">
-        <f>SUM(U35:V35)</f>
+      <c r="W35" s="10">
+        <f t="shared" si="2"/>
         <v>0.2165</v>
       </c>
     </row>
@@ -3549,7 +3565,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>21</v>
@@ -3581,39 +3597,39 @@
       <c r="L36" s="1">
         <v>15.3</v>
       </c>
-      <c r="M36" s="1">
-        <f t="shared" si="0"/>
+      <c r="M36" s="2">
+        <f t="shared" si="1"/>
         <v>0.187</v>
       </c>
-      <c r="N36" s="1">
+      <c r="N36" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="O36" s="1">
+      <c r="O36" s="2">
         <v>0.14199999999999999</v>
       </c>
-      <c r="P36" s="1">
+      <c r="P36" s="2">
         <v>0.32</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="Q36" s="2">
         <v>0.32900000000000001</v>
       </c>
-      <c r="R36" s="1">
+      <c r="R36" s="2">
         <v>0.16400000000000001</v>
       </c>
-      <c r="S36" s="1">
+      <c r="S36" s="2">
         <v>0.624</v>
       </c>
-      <c r="T36" s="1">
+      <c r="T36" s="2">
         <v>0.13600000000000001</v>
       </c>
-      <c r="U36" s="1">
+      <c r="U36" s="2">
         <v>9.1200000000000003E-2</v>
       </c>
-      <c r="V36" s="1">
+      <c r="V36" s="2">
         <v>0.14879999999999999</v>
       </c>
-      <c r="W36">
-        <f>SUM(U36:V36)</f>
+      <c r="W36" s="10">
+        <f t="shared" si="2"/>
         <v>0.24</v>
       </c>
     </row>
@@ -3622,7 +3638,7 @@
         <v>17</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>14</v>
@@ -3654,39 +3670,39 @@
       <c r="L37" s="1">
         <v>20</v>
       </c>
-      <c r="M37" s="1">
-        <f t="shared" si="0"/>
+      <c r="M37" s="2">
+        <f t="shared" si="1"/>
         <v>0.217</v>
       </c>
-      <c r="N37" s="1">
+      <c r="N37" s="2">
         <v>6.3E-2</v>
       </c>
-      <c r="O37" s="1">
+      <c r="O37" s="2">
         <v>0.154</v>
       </c>
-      <c r="P37" s="1">
+      <c r="P37" s="2">
         <v>0.318</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="Q37" s="2">
         <v>0.312</v>
       </c>
-      <c r="R37" s="1">
+      <c r="R37" s="2">
         <v>0.153</v>
       </c>
-      <c r="S37" s="1">
+      <c r="S37" s="2">
         <v>0.61529999999999996</v>
       </c>
-      <c r="T37" s="1">
+      <c r="T37" s="2">
         <v>0.12909999999999999</v>
       </c>
-      <c r="U37" s="1">
+      <c r="U37" s="2">
         <v>0.1012</v>
       </c>
-      <c r="V37" s="1">
+      <c r="V37" s="2">
         <v>0.15440000000000001</v>
       </c>
-      <c r="W37">
-        <f>SUM(U37:V37)</f>
+      <c r="W37" s="10">
+        <f t="shared" si="2"/>
         <v>0.25559999999999999</v>
       </c>
     </row>
@@ -3695,7 +3711,7 @@
         <v>27</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>21</v>
@@ -3727,39 +3743,39 @@
       <c r="L38" s="1">
         <v>19</v>
       </c>
-      <c r="M38" s="1">
-        <f t="shared" si="0"/>
+      <c r="M38" s="2">
+        <f t="shared" si="1"/>
         <v>0.187</v>
       </c>
-      <c r="N38" s="1">
+      <c r="N38" s="2">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="O38" s="1">
+      <c r="O38" s="2">
         <v>0.13900000000000001</v>
       </c>
-      <c r="P38" s="1">
+      <c r="P38" s="2">
         <v>0.313</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="Q38" s="2">
         <v>0.33300000000000002</v>
       </c>
-      <c r="R38" s="1">
+      <c r="R38" s="2">
         <v>0.16700000000000001</v>
       </c>
-      <c r="S38" s="1">
+      <c r="S38" s="2">
         <v>0.58489999999999998</v>
       </c>
-      <c r="T38" s="1">
+      <c r="T38" s="2">
         <v>0.15809999999999999</v>
       </c>
-      <c r="U38" s="1">
+      <c r="U38" s="2">
         <v>0.1135</v>
       </c>
-      <c r="V38" s="1">
+      <c r="V38" s="2">
         <v>0.14349999999999999</v>
       </c>
-      <c r="W38">
-        <f>SUM(U38:V38)</f>
+      <c r="W38" s="10">
+        <f t="shared" si="2"/>
         <v>0.25700000000000001</v>
       </c>
     </row>
@@ -3768,7 +3784,7 @@
         <v>26</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>21</v>
@@ -3800,39 +3816,39 @@
       <c r="L39" s="1">
         <v>14.9</v>
       </c>
-      <c r="M39" s="1">
-        <f t="shared" si="0"/>
+      <c r="M39" s="2">
+        <f t="shared" si="1"/>
         <v>0.189</v>
       </c>
-      <c r="N39" s="1">
+      <c r="N39" s="2">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="O39" s="1">
+      <c r="O39" s="2">
         <v>0.14299999999999999</v>
       </c>
-      <c r="P39" s="1">
+      <c r="P39" s="2">
         <v>0.32200000000000001</v>
       </c>
-      <c r="Q39" s="1">
+      <c r="Q39" s="2">
         <v>0.32800000000000001</v>
       </c>
-      <c r="R39" s="1">
+      <c r="R39" s="2">
         <v>0.161</v>
       </c>
-      <c r="S39" s="1">
+      <c r="S39" s="2">
         <v>0.61129999999999995</v>
       </c>
-      <c r="T39" s="1">
+      <c r="T39" s="2">
         <v>0.1338</v>
       </c>
-      <c r="U39" s="1">
+      <c r="U39" s="2">
         <v>0.1111</v>
       </c>
-      <c r="V39" s="1">
+      <c r="V39" s="2">
         <v>0.14369999999999999</v>
       </c>
-      <c r="W39">
-        <f>SUM(U39:V39)</f>
+      <c r="W39" s="10">
+        <f t="shared" si="2"/>
         <v>0.25480000000000003</v>
       </c>
     </row>
@@ -3841,7 +3857,7 @@
         <v>25</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>21</v>
@@ -3873,39 +3889,39 @@
       <c r="L40" s="1">
         <v>9.5</v>
       </c>
-      <c r="M40" s="1">
-        <f t="shared" si="0"/>
+      <c r="M40" s="2">
+        <f t="shared" si="1"/>
         <v>0.17300000000000001</v>
       </c>
-      <c r="N40" s="1">
+      <c r="N40" s="2">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="O40" s="1">
+      <c r="O40" s="2">
         <v>0.13100000000000001</v>
       </c>
-      <c r="P40" s="1">
+      <c r="P40" s="2">
         <v>0.29899999999999999</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="Q40" s="2">
         <v>0.33700000000000002</v>
       </c>
-      <c r="R40" s="1">
+      <c r="R40" s="2">
         <v>0.191</v>
       </c>
-      <c r="S40" s="1">
+      <c r="S40" s="2">
         <v>0.63990000000000002</v>
       </c>
-      <c r="T40" s="1">
+      <c r="T40" s="2">
         <v>0.13420000000000001</v>
       </c>
-      <c r="U40" s="1">
+      <c r="U40" s="2">
         <v>0.1032</v>
       </c>
-      <c r="V40" s="1">
+      <c r="V40" s="2">
         <v>0.1227</v>
       </c>
-      <c r="W40">
-        <f>SUM(U40:V40)</f>
+      <c r="W40" s="10">
+        <f t="shared" si="2"/>
         <v>0.22589999999999999</v>
       </c>
     </row>
@@ -3914,7 +3930,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>0</v>
@@ -3946,39 +3962,39 @@
       <c r="L41" s="1">
         <v>15.4</v>
       </c>
-      <c r="M41" s="1">
-        <f t="shared" si="0"/>
+      <c r="M41" s="2">
+        <f t="shared" si="1"/>
         <v>0.189</v>
       </c>
-      <c r="N41" s="1">
+      <c r="N41" s="2">
         <v>6.3E-2</v>
       </c>
-      <c r="O41" s="1">
+      <c r="O41" s="2">
         <v>0.126</v>
       </c>
-      <c r="P41" s="1">
+      <c r="P41" s="2">
         <v>0.31900000000000001</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="Q41" s="2">
         <v>0.316</v>
       </c>
-      <c r="R41" s="1">
+      <c r="R41" s="2">
         <v>0.17599999999999999</v>
       </c>
-      <c r="S41" s="1">
+      <c r="S41" s="2">
         <v>0.6331</v>
       </c>
-      <c r="T41" s="1">
+      <c r="T41" s="2">
         <v>0.12230000000000001</v>
       </c>
-      <c r="U41" s="1">
+      <c r="U41" s="2">
         <v>9.6699999999999994E-2</v>
       </c>
-      <c r="V41" s="1">
+      <c r="V41" s="2">
         <v>0.14799999999999999</v>
       </c>
-      <c r="W41">
-        <f>SUM(U41:V41)</f>
+      <c r="W41" s="10">
+        <f t="shared" si="2"/>
         <v>0.24469999999999997</v>
       </c>
     </row>
@@ -3987,7 +4003,7 @@
         <v>5</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>0</v>
@@ -4019,39 +4035,39 @@
       <c r="L42" s="1">
         <v>19.3</v>
       </c>
-      <c r="M42" s="1">
-        <f t="shared" si="0"/>
+      <c r="M42" s="2">
+        <f t="shared" si="1"/>
         <v>0.14699999999999999</v>
       </c>
-      <c r="N42" s="1">
+      <c r="N42" s="2">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="O42" s="1">
+      <c r="O42" s="2">
         <v>0.111</v>
       </c>
-      <c r="P42" s="1">
+      <c r="P42" s="2">
         <v>0.312</v>
       </c>
-      <c r="Q42" s="1">
+      <c r="Q42" s="2">
         <v>0.36199999999999999</v>
       </c>
-      <c r="R42" s="1">
+      <c r="R42" s="2">
         <v>0.18099999999999999</v>
       </c>
-      <c r="S42" s="1">
+      <c r="S42" s="2">
         <v>0.68840000000000001</v>
       </c>
-      <c r="T42" s="1">
+      <c r="T42" s="2">
         <v>0.12570000000000001</v>
       </c>
-      <c r="U42" s="1">
+      <c r="U42" s="2">
         <v>9.2399999999999996E-2</v>
       </c>
-      <c r="V42" s="1">
+      <c r="V42" s="2">
         <v>9.35E-2</v>
       </c>
-      <c r="W42">
-        <f>SUM(U42:V42)</f>
+      <c r="W42" s="10">
+        <f t="shared" si="2"/>
         <v>0.18590000000000001</v>
       </c>
     </row>
@@ -4060,7 +4076,7 @@
         <v>4</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>0</v>
@@ -4092,39 +4108,39 @@
       <c r="L43" s="1">
         <v>16.600000000000001</v>
       </c>
-      <c r="M43" s="1">
-        <f t="shared" si="0"/>
+      <c r="M43" s="2">
+        <f t="shared" si="1"/>
         <v>0.22699999999999998</v>
       </c>
-      <c r="N43" s="1">
+      <c r="N43" s="2">
         <v>7.8E-2</v>
       </c>
-      <c r="O43" s="1">
+      <c r="O43" s="2">
         <v>0.14899999999999999</v>
       </c>
-      <c r="P43" s="1">
+      <c r="P43" s="2">
         <v>0.317</v>
       </c>
-      <c r="Q43" s="1">
+      <c r="Q43" s="2">
         <v>0.31900000000000001</v>
       </c>
-      <c r="R43" s="1">
+      <c r="R43" s="2">
         <v>0.13700000000000001</v>
       </c>
-      <c r="S43" s="1">
+      <c r="S43" s="2">
         <v>0.61750000000000005</v>
       </c>
-      <c r="T43" s="1">
+      <c r="T43" s="2">
         <v>0.1191</v>
       </c>
-      <c r="U43" s="1">
+      <c r="U43" s="2">
         <v>0.10340000000000001</v>
       </c>
-      <c r="V43" s="1">
+      <c r="V43" s="2">
         <v>0.16</v>
       </c>
-      <c r="W43">
-        <f>SUM(U43:V43)</f>
+      <c r="W43" s="10">
+        <f t="shared" si="2"/>
         <v>0.26340000000000002</v>
       </c>
     </row>
@@ -4133,7 +4149,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>0</v>
@@ -4165,39 +4181,39 @@
       <c r="L44" s="1">
         <v>13.7</v>
       </c>
-      <c r="M44" s="1">
-        <f t="shared" si="0"/>
+      <c r="M44" s="2">
+        <f t="shared" si="1"/>
         <v>0.191</v>
       </c>
-      <c r="N44" s="1">
+      <c r="N44" s="2">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="O44" s="1">
+      <c r="O44" s="2">
         <v>0.13400000000000001</v>
       </c>
-      <c r="P44" s="1">
+      <c r="P44" s="2">
         <v>0.33800000000000002</v>
       </c>
-      <c r="Q44" s="1">
+      <c r="Q44" s="2">
         <v>0.28599999999999998</v>
       </c>
-      <c r="R44" s="1">
+      <c r="R44" s="2">
         <v>0.185</v>
       </c>
-      <c r="S44" s="1">
+      <c r="S44" s="2">
         <v>0.66830000000000001</v>
       </c>
-      <c r="T44" s="1">
+      <c r="T44" s="2">
         <v>0.12740000000000001</v>
       </c>
-      <c r="U44" s="1">
+      <c r="U44" s="2">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="V44" s="1">
+      <c r="V44" s="2">
         <v>0.1169</v>
       </c>
-      <c r="W44">
-        <f>SUM(U44:V44)</f>
+      <c r="W44" s="10">
+        <f t="shared" si="2"/>
         <v>0.2044</v>
       </c>
     </row>
@@ -4206,7 +4222,7 @@
         <v>16</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>14</v>
@@ -4238,39 +4254,39 @@
       <c r="L45" s="1">
         <v>22.2</v>
       </c>
-      <c r="M45" s="1">
-        <f t="shared" si="0"/>
+      <c r="M45" s="2">
+        <f t="shared" si="1"/>
         <v>0.14500000000000002</v>
       </c>
-      <c r="N45" s="1">
+      <c r="N45" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="O45" s="1">
+      <c r="O45" s="2">
         <v>0.112</v>
       </c>
-      <c r="P45" s="1">
+      <c r="P45" s="2">
         <v>0.30599999999999999</v>
       </c>
-      <c r="Q45" s="1">
+      <c r="Q45" s="2">
         <v>0.34399999999999997</v>
       </c>
-      <c r="R45" s="1">
+      <c r="R45" s="2">
         <v>0.20499999999999999</v>
       </c>
-      <c r="S45" s="1">
+      <c r="S45" s="2">
         <v>0.58360000000000001</v>
       </c>
-      <c r="T45" s="1">
+      <c r="T45" s="2">
         <v>0.17119999999999999</v>
       </c>
-      <c r="U45" s="1">
+      <c r="U45" s="2">
         <v>0.1229</v>
       </c>
-      <c r="V45" s="1">
+      <c r="V45" s="2">
         <v>0.12239999999999999</v>
       </c>
-      <c r="W45">
-        <f>SUM(U45:V45)</f>
+      <c r="W45" s="10">
+        <f t="shared" si="2"/>
         <v>0.24529999999999999</v>
       </c>
     </row>
@@ -4279,7 +4295,7 @@
         <v>24</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>21</v>
@@ -4311,39 +4327,39 @@
       <c r="L46" s="1">
         <v>18.8</v>
       </c>
-      <c r="M46" s="1">
-        <f t="shared" si="0"/>
+      <c r="M46" s="2">
+        <f t="shared" si="1"/>
         <v>0.13800000000000001</v>
       </c>
-      <c r="N46" s="1">
+      <c r="N46" s="2">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="O46" s="1">
+      <c r="O46" s="2">
         <v>0.10100000000000001</v>
       </c>
-      <c r="P46" s="1">
+      <c r="P46" s="2">
         <v>0.29499999999999998</v>
       </c>
-      <c r="Q46" s="1">
+      <c r="Q46" s="2">
         <v>0.38100000000000001</v>
       </c>
-      <c r="R46" s="1">
+      <c r="R46" s="2">
         <v>0.187</v>
       </c>
-      <c r="S46" s="1">
+      <c r="S46" s="2">
         <v>0.61839999999999995</v>
       </c>
-      <c r="T46" s="1">
+      <c r="T46" s="2">
         <v>0.1573</v>
       </c>
-      <c r="U46" s="1">
+      <c r="U46" s="2">
         <v>0.10340000000000001</v>
       </c>
-      <c r="V46" s="1">
+      <c r="V46" s="2">
         <v>0.12089999999999999</v>
       </c>
-      <c r="W46">
-        <f>SUM(U46:V46)</f>
+      <c r="W46" s="10">
+        <f t="shared" si="2"/>
         <v>0.2243</v>
       </c>
     </row>
@@ -4352,7 +4368,7 @@
         <v>15</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>14</v>
@@ -4384,39 +4400,39 @@
       <c r="L47" s="1">
         <v>14</v>
       </c>
-      <c r="M47" s="1">
-        <f t="shared" si="0"/>
+      <c r="M47" s="2">
+        <f t="shared" si="1"/>
         <v>0.17399999999999999</v>
       </c>
-      <c r="N47" s="1">
+      <c r="N47" s="2">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="O47" s="1">
+      <c r="O47" s="2">
         <v>0.13</v>
       </c>
-      <c r="P47" s="1">
+      <c r="P47" s="2">
         <v>0.29599999999999999</v>
       </c>
-      <c r="Q47" s="1">
+      <c r="Q47" s="2">
         <v>0.34100000000000003</v>
       </c>
-      <c r="R47" s="1">
+      <c r="R47" s="2">
         <v>0.19</v>
       </c>
-      <c r="S47" s="1">
+      <c r="S47" s="2">
         <v>0.65069999999999995</v>
       </c>
-      <c r="T47" s="1">
+      <c r="T47" s="2">
         <v>0.1283</v>
       </c>
-      <c r="U47" s="1">
+      <c r="U47" s="2">
         <v>9.9599999999999994E-2</v>
       </c>
-      <c r="V47" s="1">
+      <c r="V47" s="2">
         <v>0.12139999999999999</v>
       </c>
-      <c r="W47">
-        <f>SUM(U47:V47)</f>
+      <c r="W47" s="10">
+        <f t="shared" si="2"/>
         <v>0.22099999999999997</v>
       </c>
     </row>
@@ -4425,7 +4441,7 @@
         <v>23</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>21</v>
@@ -4457,39 +4473,39 @@
       <c r="L48" s="1">
         <v>15.9</v>
       </c>
-      <c r="M48" s="1">
-        <f t="shared" si="0"/>
+      <c r="M48" s="2">
+        <f t="shared" si="1"/>
         <v>0.157</v>
       </c>
-      <c r="N48" s="1">
+      <c r="N48" s="2">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="O48" s="1">
+      <c r="O48" s="2">
         <v>0.12</v>
       </c>
-      <c r="P48" s="1">
+      <c r="P48" s="2">
         <v>0.32</v>
       </c>
-      <c r="Q48" s="1">
+      <c r="Q48" s="2">
         <v>0.33400000000000002</v>
       </c>
-      <c r="R48" s="1">
+      <c r="R48" s="2">
         <v>0.188</v>
       </c>
-      <c r="S48" s="1">
+      <c r="S48" s="2">
         <v>0.60629999999999995</v>
       </c>
-      <c r="T48" s="1">
+      <c r="T48" s="2">
         <v>0.1603</v>
       </c>
-      <c r="U48" s="1">
+      <c r="U48" s="2">
         <v>0.1138</v>
       </c>
-      <c r="V48" s="1">
+      <c r="V48" s="2">
         <v>0.1196</v>
       </c>
-      <c r="W48">
-        <f>SUM(U48:V48)</f>
+      <c r="W48" s="10">
+        <f t="shared" si="2"/>
         <v>0.2334</v>
       </c>
     </row>
@@ -4498,7 +4514,7 @@
         <v>22</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>21</v>
@@ -4530,39 +4546,39 @@
       <c r="L49" s="1">
         <v>21.2</v>
       </c>
-      <c r="M49" s="1">
-        <f t="shared" si="0"/>
+      <c r="M49" s="2">
+        <f t="shared" si="1"/>
         <v>0.26300000000000001</v>
       </c>
-      <c r="N49" s="1">
+      <c r="N49" s="2">
         <v>9.4E-2</v>
       </c>
-      <c r="O49" s="1">
+      <c r="O49" s="2">
         <v>0.16900000000000001</v>
       </c>
-      <c r="P49" s="1">
+      <c r="P49" s="2">
         <v>0.32500000000000001</v>
       </c>
-      <c r="Q49" s="1">
+      <c r="Q49" s="2">
         <v>0.28799999999999998</v>
       </c>
-      <c r="R49" s="1">
+      <c r="R49" s="2">
         <v>0.124</v>
       </c>
-      <c r="S49" s="1">
+      <c r="S49" s="2">
         <v>0.59819999999999995</v>
       </c>
-      <c r="T49" s="1">
+      <c r="T49" s="2">
         <v>0.111</v>
       </c>
-      <c r="U49" s="1">
+      <c r="U49" s="2">
         <v>0.10150000000000001</v>
       </c>
-      <c r="V49" s="1">
+      <c r="V49" s="2">
         <v>0.18940000000000001</v>
       </c>
-      <c r="W49">
-        <f>SUM(U49:V49)</f>
+      <c r="W49" s="10">
+        <f t="shared" si="2"/>
         <v>0.29090000000000005</v>
       </c>
     </row>
@@ -4571,7 +4587,7 @@
         <v>2</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>0</v>
@@ -4603,39 +4619,39 @@
       <c r="L50" s="1">
         <v>14.8</v>
       </c>
-      <c r="M50" s="1">
-        <f t="shared" si="0"/>
+      <c r="M50" s="2">
+        <f t="shared" si="1"/>
         <v>0.156</v>
       </c>
-      <c r="N50" s="1">
+      <c r="N50" s="2">
         <v>0.04</v>
       </c>
-      <c r="O50" s="1">
+      <c r="O50" s="2">
         <v>0.11600000000000001</v>
       </c>
-      <c r="P50" s="1">
+      <c r="P50" s="2">
         <v>0.33100000000000002</v>
       </c>
-      <c r="Q50" s="1">
+      <c r="Q50" s="2">
         <v>0.35699999999999998</v>
       </c>
-      <c r="R50" s="1">
+      <c r="R50" s="2">
         <v>0.155</v>
       </c>
-      <c r="S50" s="1">
+      <c r="S50" s="2">
         <v>0.62939999999999996</v>
       </c>
-      <c r="T50" s="1">
+      <c r="T50" s="2">
         <v>0.1469</v>
       </c>
-      <c r="U50" s="1">
+      <c r="U50" s="2">
         <v>0.1019</v>
       </c>
-      <c r="V50" s="1">
+      <c r="V50" s="2">
         <v>0.12189999999999999</v>
       </c>
-      <c r="W50">
-        <f>SUM(U50:V50)</f>
+      <c r="W50" s="10">
+        <f t="shared" si="2"/>
         <v>0.2238</v>
       </c>
     </row>
@@ -4644,7 +4660,7 @@
         <v>1</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>0</v>
@@ -4676,39 +4692,39 @@
       <c r="L51" s="1">
         <v>25.2</v>
       </c>
-      <c r="M51" s="1">
-        <f t="shared" si="0"/>
+      <c r="M51" s="2">
+        <f t="shared" si="1"/>
         <v>0.159</v>
       </c>
-      <c r="N51" s="1">
+      <c r="N51" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="O51" s="1">
+      <c r="O51" s="2">
         <v>0.11600000000000001</v>
       </c>
-      <c r="P51" s="1">
+      <c r="P51" s="2">
         <v>0.308</v>
       </c>
-      <c r="Q51" s="1">
+      <c r="Q51" s="2">
         <v>0.34399999999999997</v>
       </c>
-      <c r="R51" s="1">
+      <c r="R51" s="2">
         <v>0.188</v>
       </c>
-      <c r="S51" s="1">
+      <c r="S51" s="2">
         <v>0.67900000000000005</v>
       </c>
-      <c r="T51" s="1">
+      <c r="T51" s="2">
         <v>0.1206</v>
       </c>
-      <c r="U51" s="1">
+      <c r="U51" s="2">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="V51" s="1">
+      <c r="V51" s="2">
         <v>0.12230000000000001</v>
       </c>
-      <c r="W51">
-        <f>SUM(U51:V51)</f>
+      <c r="W51" s="10">
+        <f t="shared" si="2"/>
         <v>0.20040000000000002</v>
       </c>
     </row>
@@ -4742,7 +4758,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4750,10 +4766,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4764,7 +4780,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4772,10 +4788,10 @@
         <v>51</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4783,10 +4799,10 @@
         <v>50</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4794,10 +4810,10 @@
         <v>49</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4805,10 +4821,10 @@
         <v>48</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4816,10 +4832,10 @@
         <v>47</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4827,10 +4843,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4838,10 +4854,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4849,10 +4865,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4863,7 +4879,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4874,7 +4890,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4882,10 +4898,10 @@
         <v>44</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4893,10 +4909,10 @@
         <v>43</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4907,7 +4923,7 @@
         <v>42</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4915,10 +4931,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4926,10 +4942,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4937,10 +4953,10 @@
         <v>40</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4951,7 +4967,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4959,10 +4975,10 @@
         <v>39</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4970,10 +4986,10 @@
         <v>38</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4981,10 +4997,10 @@
         <v>37</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4992,10 +5008,10 @@
         <v>36</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5003,10 +5019,10 @@
         <v>9</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5014,10 +5030,10 @@
         <v>8</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5025,10 +5041,10 @@
         <v>35</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5036,10 +5052,10 @@
         <v>18</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5047,10 +5063,10 @@
         <v>34</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5058,10 +5074,10 @@
         <v>33</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5069,10 +5085,10 @@
         <v>32</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5080,10 +5096,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5091,10 +5107,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5102,10 +5118,10 @@
         <v>7</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5113,10 +5129,10 @@
         <v>29</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5127,7 +5143,7 @@
         <v>28</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5135,10 +5151,10 @@
         <v>17</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5146,10 +5162,10 @@
         <v>27</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5157,10 +5173,10 @@
         <v>26</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5168,10 +5184,10 @@
         <v>25</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5179,10 +5195,10 @@
         <v>6</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5190,10 +5206,10 @@
         <v>5</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5201,10 +5217,10 @@
         <v>4</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5212,10 +5228,10 @@
         <v>3</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5226,7 +5242,7 @@
         <v>16</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5234,10 +5250,10 @@
         <v>24</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5245,10 +5261,10 @@
         <v>15</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5256,10 +5272,10 @@
         <v>23</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5267,10 +5283,10 @@
         <v>22</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5278,10 +5294,10 @@
         <v>2</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5289,10 +5305,10 @@
         <v>1</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/data2/All States All Data Collected.xlsx
+++ b/data2/All States All Data Collected.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jillyutahh/github/gal/Analyzing-Medicare-Expansion/data2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E48644E-C421-8F46-8747-ECACE4BD8BA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90AA559-44DF-5F48-93E2-4EAA5FE6A8C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28680" yWindow="-3400" windowWidth="26840" windowHeight="15940" xr2:uid="{02E46638-B89A-9A4E-94A9-A89CDE14B1CE}"/>
   </bookViews>
@@ -207,21 +207,6 @@
     <t>Excellent Mental Health (0 Poor days)</t>
   </si>
   <si>
-    <t>Health Excellent</t>
-  </si>
-  <si>
-    <t>Health Very Good</t>
-  </si>
-  <si>
-    <t>Health Good</t>
-  </si>
-  <si>
-    <t>Health Fair</t>
-  </si>
-  <si>
-    <t>Health Poor</t>
-  </si>
-  <si>
     <t>Suicide Rate per 100,000</t>
   </si>
   <si>
@@ -550,6 +535,21 @@
   </si>
   <si>
     <t>% Adults Uninsured</t>
+  </si>
+  <si>
+    <t>% Adults, Health Poor</t>
+  </si>
+  <si>
+    <t>% Adults, Health Fair</t>
+  </si>
+  <si>
+    <t>% Adults, Health Good</t>
+  </si>
+  <si>
+    <t>% Adults, Health Very Good</t>
+  </si>
+  <si>
+    <t>% Adults, Health Excellent</t>
   </si>
 </sst>
 </file>
@@ -985,7 +985,7 @@
   <dimension ref="A1:X52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F51"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1013,53 +1013,53 @@
   <sheetData>
     <row r="1" spans="1:24" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" s="10" t="s">
+      <c r="N1" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="O1" s="5" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>57</v>
+        <v>169</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>56</v>
+        <v>170</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>55</v>
@@ -1074,13 +1074,13 @@
         <v>52</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1088,13 +1088,13 @@
         <v>13</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E2" s="2">
         <v>0.69699999999999995</v>
@@ -1162,13 +1162,13 @@
         <v>51</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E3" s="2">
         <v>0.64200000000000002</v>
@@ -1236,13 +1236,13 @@
         <v>50</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E4" s="2">
         <v>0.64700000000000002</v>
@@ -1310,13 +1310,13 @@
         <v>49</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E5" s="2">
         <v>0.70499999999999996</v>
@@ -1384,13 +1384,13 @@
         <v>48</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E6" s="2">
         <v>0.622</v>
@@ -1458,13 +1458,13 @@
         <v>47</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E7" s="2">
         <v>0.58899999999999997</v>
@@ -1532,13 +1532,13 @@
         <v>46</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E8" s="2">
         <v>0.64400000000000002</v>
@@ -1606,13 +1606,13 @@
         <v>45</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E9" s="2">
         <v>0.67800000000000005</v>
@@ -1680,13 +1680,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E10" s="2">
         <v>0.65900000000000003</v>
@@ -1754,13 +1754,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E11" s="2">
         <v>0.67200000000000004</v>
@@ -1828,13 +1828,13 @@
         <v>44</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E12" s="2">
         <v>0.59499999999999997</v>
@@ -1902,13 +1902,13 @@
         <v>19</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E13" s="2">
         <v>0.64100000000000001</v>
@@ -1976,13 +1976,13 @@
         <v>43</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E14" s="2">
         <v>0.66600000000000004</v>
@@ -2050,13 +2050,13 @@
         <v>42</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E15" s="2">
         <v>0.66400000000000003</v>
@@ -2124,13 +2124,13 @@
         <v>41</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E16" s="2">
         <v>0.69499999999999995</v>
@@ -2198,13 +2198,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E17" s="2">
         <v>0.68600000000000005</v>
@@ -2272,13 +2272,13 @@
         <v>40</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E18" s="2">
         <v>0.68500000000000005</v>
@@ -2346,13 +2346,13 @@
         <v>39</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E19" s="2">
         <v>0.69399999999999995</v>
@@ -2420,13 +2420,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E20" s="2">
         <v>0.65700000000000003</v>
@@ -2494,13 +2494,13 @@
         <v>38</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E21" s="2">
         <v>0.66500000000000004</v>
@@ -2568,13 +2568,13 @@
         <v>37</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E22" s="2">
         <v>0.61599999999999999</v>
@@ -2642,13 +2642,13 @@
         <v>36</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E23" s="2">
         <v>0.67500000000000004</v>
@@ -2716,13 +2716,13 @@
         <v>35</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E24" s="2">
         <v>0.65800000000000003</v>
@@ -2790,13 +2790,13 @@
         <v>9</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E25" s="2">
         <v>0.73299999999999998</v>
@@ -2864,13 +2864,13 @@
         <v>8</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E26" s="2">
         <v>0.66900000000000004</v>
@@ -2938,13 +2938,13 @@
         <v>34</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E27" s="2">
         <v>0.63200000000000001</v>
@@ -3012,13 +3012,13 @@
         <v>17</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E28" s="2">
         <v>0.68899999999999995</v>
@@ -3086,13 +3086,13 @@
         <v>33</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E29" s="2">
         <v>0.67600000000000005</v>
@@ -3160,13 +3160,13 @@
         <v>32</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E30" s="2">
         <v>0.65</v>
@@ -3234,13 +3234,13 @@
         <v>31</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E31" s="2">
         <v>0.623</v>
@@ -3308,13 +3308,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E32" s="2">
         <v>0.67200000000000004</v>
@@ -3382,13 +3382,13 @@
         <v>29</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E33" s="2">
         <v>0.627</v>
@@ -3456,13 +3456,13 @@
         <v>7</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E34" s="2">
         <v>0.68</v>
@@ -3530,13 +3530,13 @@
         <v>28</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E35" s="2">
         <v>0.71</v>
@@ -3604,13 +3604,13 @@
         <v>27</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E36" s="2">
         <v>0.68400000000000005</v>
@@ -3678,13 +3678,13 @@
         <v>16</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E37" s="2">
         <v>0.69599999999999995</v>
@@ -3752,13 +3752,13 @@
         <v>26</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E38" s="2">
         <v>0.64100000000000001</v>
@@ -3826,13 +3826,13 @@
         <v>25</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E39" s="2">
         <v>0.65900000000000003</v>
@@ -3900,13 +3900,13 @@
         <v>24</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E40" s="2">
         <v>0.64600000000000002</v>
@@ -3974,13 +3974,13 @@
         <v>6</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E41" s="2">
         <v>0.69699999999999995</v>
@@ -4048,13 +4048,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E42" s="2">
         <v>0.67800000000000005</v>
@@ -4122,13 +4122,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E43" s="2">
         <v>0.67900000000000005</v>
@@ -4196,13 +4196,13 @@
         <v>3</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E44" s="2">
         <v>0.69499999999999995</v>
@@ -4270,13 +4270,13 @@
         <v>15</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E45" s="2">
         <v>0.621</v>
@@ -4344,13 +4344,13 @@
         <v>23</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E46" s="2">
         <v>0.61099999999999999</v>
@@ -4418,13 +4418,13 @@
         <v>14</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E47" s="2">
         <v>0.66300000000000003</v>
@@ -4492,13 +4492,13 @@
         <v>22</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E48" s="2">
         <v>0.63300000000000001</v>
@@ -4566,13 +4566,13 @@
         <v>21</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E49" s="2">
         <v>0.72</v>
@@ -4640,13 +4640,13 @@
         <v>2</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E50" s="2">
         <v>0.68100000000000005</v>
@@ -4714,13 +4714,13 @@
         <v>1</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E51" s="2">
         <v>0.64400000000000002</v>
@@ -4814,7 +4814,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4822,10 +4822,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4836,7 +4836,7 @@
         <v>51</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4844,10 +4844,10 @@
         <v>50</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4855,10 +4855,10 @@
         <v>49</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4866,10 +4866,10 @@
         <v>48</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4877,10 +4877,10 @@
         <v>47</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4888,10 +4888,10 @@
         <v>46</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4899,10 +4899,10 @@
         <v>45</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4910,10 +4910,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4921,10 +4921,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4935,7 +4935,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4946,7 +4946,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4954,10 +4954,10 @@
         <v>43</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4965,10 +4965,10 @@
         <v>42</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4979,7 +4979,7 @@
         <v>41</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4987,10 +4987,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4998,10 +4998,10 @@
         <v>40</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5009,10 +5009,10 @@
         <v>39</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5023,7 +5023,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5031,10 +5031,10 @@
         <v>38</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5042,10 +5042,10 @@
         <v>37</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5053,10 +5053,10 @@
         <v>36</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5064,10 +5064,10 @@
         <v>35</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5075,10 +5075,10 @@
         <v>9</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5086,10 +5086,10 @@
         <v>8</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5097,10 +5097,10 @@
         <v>34</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5108,10 +5108,10 @@
         <v>17</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5119,10 +5119,10 @@
         <v>33</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5130,10 +5130,10 @@
         <v>32</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5141,10 +5141,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5152,10 +5152,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5163,10 +5163,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5174,10 +5174,10 @@
         <v>7</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5185,10 +5185,10 @@
         <v>28</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5199,7 +5199,7 @@
         <v>27</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5207,10 +5207,10 @@
         <v>16</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5218,10 +5218,10 @@
         <v>26</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5229,10 +5229,10 @@
         <v>25</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5240,10 +5240,10 @@
         <v>24</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5251,10 +5251,10 @@
         <v>6</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5262,10 +5262,10 @@
         <v>5</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5273,10 +5273,10 @@
         <v>4</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5284,10 +5284,10 @@
         <v>3</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5298,7 +5298,7 @@
         <v>15</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5306,10 +5306,10 @@
         <v>23</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5317,10 +5317,10 @@
         <v>14</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5328,10 +5328,10 @@
         <v>22</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5339,10 +5339,10 @@
         <v>21</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5350,10 +5350,10 @@
         <v>2</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5361,10 +5361,10 @@
         <v>1</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data2/All States All Data Collected.xlsx
+++ b/data2/All States All Data Collected.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jillyutahh/github/gal/Analyzing-Medicare-Expansion/data2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90AA559-44DF-5F48-93E2-4EAA5FE6A8C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DE40D1-BE29-634F-A8BF-35CB9A49F029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28680" yWindow="-3400" windowWidth="26840" windowHeight="15940" xr2:uid="{02E46638-B89A-9A4E-94A9-A89CDE14B1CE}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="172">
   <si>
     <t>Not Adopted</t>
   </si>
@@ -550,6 +550,9 @@
   </si>
   <si>
     <t>% Adults, Health Excellent</t>
+  </si>
+  <si>
+    <t>Expanded ?</t>
   </si>
 </sst>
 </file>
@@ -985,7 +988,7 @@
   <dimension ref="A1:X52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1021,7 +1024,9 @@
       <c r="C1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="5"/>
+      <c r="D1" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="E1" s="10" t="s">
         <v>60</v>
       </c>

--- a/data2/All States All Data Collected.xlsx
+++ b/data2/All States All Data Collected.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jillyutahh/github/gal/Analyzing-Medicare-Expansion/data2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DE40D1-BE29-634F-A8BF-35CB9A49F029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1B847C-0DE7-174E-894E-CED45BAAAAA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28680" yWindow="-3400" windowWidth="26840" windowHeight="15940" xr2:uid="{02E46638-B89A-9A4E-94A9-A89CDE14B1CE}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="171">
   <si>
     <t>Not Adopted</t>
   </si>
@@ -550,9 +550,6 @@
   </si>
   <si>
     <t>% Adults, Health Excellent</t>
-  </si>
-  <si>
-    <t>Expanded ?</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1022,7 @@
         <v>61</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>60</v>

--- a/data2/All States All Data Collected.xlsx
+++ b/data2/All States All Data Collected.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jillyutahh/github/gal/Analyzing-Medicare-Expansion/data2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1B847C-0DE7-174E-894E-CED45BAAAAA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A555968-5B9B-2346-9F57-56F12F656406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28680" yWindow="-3400" windowWidth="26840" windowHeight="15940" xr2:uid="{02E46638-B89A-9A4E-94A9-A89CDE14B1CE}"/>
+    <workbookView xWindow="-34900" yWindow="-3560" windowWidth="26840" windowHeight="15940" xr2:uid="{02E46638-B89A-9A4E-94A9-A89CDE14B1CE}"/>
   </bookViews>
   <sheets>
     <sheet name="All States" sheetId="1" r:id="rId1"/>
@@ -984,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B580A4D7-BAE7-3D4C-B506-0491120E06C5}">
   <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V55" sqref="V55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1150,7 +1150,7 @@
         <v>0.15570000000000001</v>
       </c>
       <c r="V2" s="2">
-        <v>0.13649</v>
+        <v>0.16209999999999999</v>
       </c>
       <c r="W2" s="2">
         <v>0.26400000000000001</v>
@@ -1191,7 +1191,7 @@
         <v>700.3</v>
       </c>
       <c r="K3" s="1">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="L3" s="11">
         <v>78.77</v>
@@ -1224,7 +1224,7 @@
         <v>0.1095</v>
       </c>
       <c r="V3" s="2">
-        <v>0.13306000000000001</v>
+        <v>0.13649</v>
       </c>
       <c r="W3" s="2">
         <v>0.26100000000000001</v>
@@ -1298,7 +1298,7 @@
         <v>0.12529999999999999</v>
       </c>
       <c r="V4" s="2">
-        <v>0.14871000000000001</v>
+        <v>0.13306000000000001</v>
       </c>
       <c r="W4" s="2">
         <v>0.32500000000000001</v>
@@ -1339,7 +1339,7 @@
         <v>876.6</v>
       </c>
       <c r="K5" s="1">
-        <v>18.3</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="L5" s="11">
         <v>75.930000000000007</v>
@@ -1372,7 +1372,7 @@
         <v>0.16</v>
       </c>
       <c r="V5" s="2">
-        <v>0.11855</v>
+        <v>0.14871000000000001</v>
       </c>
       <c r="W5" s="2">
         <v>0.17799999999999999</v>
@@ -1413,7 +1413,7 @@
         <v>609</v>
       </c>
       <c r="K6" s="1">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="L6" s="11">
         <v>81.58</v>
@@ -1446,7 +1446,7 @@
         <v>0.1139</v>
       </c>
       <c r="V6" s="2">
-        <v>0.12155000000000001</v>
+        <v>0.11855</v>
       </c>
       <c r="W6" s="2">
         <v>0.27900000000000003</v>
@@ -1487,7 +1487,7 @@
         <v>651.4</v>
       </c>
       <c r="K7" s="1">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="L7" s="11">
         <v>80.5</v>
@@ -1520,7 +1520,7 @@
         <v>0.111</v>
       </c>
       <c r="V7" s="2">
-        <v>9.1969999999999996E-2</v>
+        <v>0.12155000000000001</v>
       </c>
       <c r="W7" s="2">
         <v>0.17899999999999999</v>
@@ -1561,7 +1561,7 @@
         <v>644.20000000000005</v>
       </c>
       <c r="K8" s="1">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="L8" s="11">
         <v>80.87</v>
@@ -1594,7 +1594,7 @@
         <v>0.10979999999999999</v>
       </c>
       <c r="V8" s="2">
-        <v>0.10553999999999999</v>
+        <v>9.1969999999999996E-2</v>
       </c>
       <c r="W8" s="2">
         <v>0.28399999999999997</v>
@@ -1668,7 +1668,7 @@
         <v>0.12429999999999999</v>
       </c>
       <c r="V9" s="2">
-        <v>7.3459999999999998E-2</v>
+        <v>0.10553999999999999</v>
       </c>
       <c r="W9" s="2">
         <v>0.14899999999999999</v>
@@ -1709,7 +1709,7 @@
         <v>657.9</v>
       </c>
       <c r="K10" s="1">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="L10" s="11">
         <v>80.040000000000006</v>
@@ -1742,7 +1742,7 @@
         <v>0.128</v>
       </c>
       <c r="V10" s="2">
-        <v>0.11501</v>
+        <v>0.16175999999999999</v>
       </c>
       <c r="W10" s="2">
         <v>0.28699999999999998</v>
@@ -1783,7 +1783,7 @@
         <v>790.2</v>
       </c>
       <c r="K11" s="1">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="L11" s="11">
         <v>77.77</v>
@@ -1816,7 +1816,7 @@
         <v>0.13070000000000001</v>
       </c>
       <c r="V11" s="2">
-        <v>0.12174</v>
+        <v>0.18199000000000001</v>
       </c>
       <c r="W11" s="2">
         <v>0.36499999999999999</v>
@@ -1857,7 +1857,7 @@
         <v>572.5</v>
       </c>
       <c r="K12" s="1">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="L12" s="11">
         <v>82.29</v>
@@ -1890,7 +1890,7 @@
         <v>9.9400000000000002E-2</v>
       </c>
       <c r="V12" s="2">
-        <v>7.7450000000000005E-2</v>
+        <v>7.3459999999999998E-2</v>
       </c>
       <c r="W12" s="2">
         <v>0.29199999999999998</v>
@@ -1964,7 +1964,7 @@
         <v>0.1188</v>
       </c>
       <c r="V13" s="2">
-        <v>0.12637999999999999</v>
+        <v>0.14964</v>
       </c>
       <c r="W13" s="2">
         <v>0.32500000000000001</v>
@@ -2038,7 +2038,7 @@
         <v>0.1142</v>
       </c>
       <c r="V14" s="2">
-        <v>0.14824999999999999</v>
+        <v>0.11501</v>
       </c>
       <c r="W14" s="2">
         <v>0.371</v>
@@ -2112,7 +2112,7 @@
         <v>0.14319999999999999</v>
       </c>
       <c r="V15" s="2">
-        <v>0.11234</v>
+        <v>0.12174</v>
       </c>
       <c r="W15" s="2">
         <v>0.20200000000000001</v>
@@ -2186,7 +2186,7 @@
         <v>0.1018</v>
       </c>
       <c r="V16" s="2">
-        <v>8.7730000000000002E-2</v>
+        <v>7.7450000000000005E-2</v>
       </c>
       <c r="W16" s="2">
         <v>0.21199999999999999</v>
@@ -2227,7 +2227,7 @@
         <v>771.3</v>
       </c>
       <c r="K17" s="1">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="L17" s="11">
         <v>78.52</v>
@@ -2260,7 +2260,7 @@
         <v>0.12470000000000001</v>
       </c>
       <c r="V17" s="2">
-        <v>0.11794</v>
+        <v>0.12126000000000001</v>
       </c>
       <c r="W17" s="2">
         <v>0.34100000000000003</v>
@@ -2301,7 +2301,7 @@
         <v>920</v>
       </c>
       <c r="K18" s="1">
-        <v>17.5</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="L18" s="11">
         <v>75.41</v>
@@ -2334,7 +2334,7 @@
         <v>0.16689999999999999</v>
       </c>
       <c r="V18" s="2">
-        <v>0.10027</v>
+        <v>0.12637999999999999</v>
       </c>
       <c r="W18" s="2">
         <v>0.247</v>
@@ -2408,7 +2408,7 @@
         <v>0.1573</v>
       </c>
       <c r="V19" s="2">
-        <v>0.10056</v>
+        <v>0.14824999999999999</v>
       </c>
       <c r="W19" s="2">
         <v>0.33</v>
@@ -2449,7 +2449,7 @@
         <v>753.9</v>
       </c>
       <c r="K20" s="1">
-        <v>18.5</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="L20" s="11">
         <v>78.680000000000007</v>
@@ -2482,7 +2482,7 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="V20" s="2">
-        <v>0.14488999999999999</v>
+        <v>0.11768000000000001</v>
       </c>
       <c r="W20" s="2">
         <v>0.318</v>
@@ -2523,7 +2523,7 @@
         <v>714.1</v>
       </c>
       <c r="K21" s="1">
-        <v>10.199999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="L21" s="11">
         <v>79.14</v>
@@ -2556,7 +2556,7 @@
         <v>0.1113</v>
       </c>
       <c r="V21" s="2">
-        <v>0.10584</v>
+        <v>0.11234</v>
       </c>
       <c r="W21" s="2">
         <v>0.28100000000000003</v>
@@ -2630,7 +2630,7 @@
         <v>0.12790000000000001</v>
       </c>
       <c r="V22" s="2">
-        <v>0.13053000000000001</v>
+        <v>8.7730000000000002E-2</v>
       </c>
       <c r="W22" s="2">
         <v>0.22800000000000001</v>
@@ -2704,7 +2704,7 @@
         <v>0.14269999999999999</v>
       </c>
       <c r="V23" s="2">
-        <v>0.13009999999999999</v>
+        <v>0.11794</v>
       </c>
       <c r="W23" s="2">
         <v>0.218</v>
@@ -2778,7 +2778,7 @@
         <v>0.10489999999999999</v>
       </c>
       <c r="V24" s="2">
-        <v>0.11038000000000001</v>
+        <v>0.10027</v>
       </c>
       <c r="W24" s="2">
         <v>0.16800000000000001</v>
@@ -2819,7 +2819,7 @@
         <v>934.8</v>
       </c>
       <c r="K25" s="1">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="L25" s="11">
         <v>74.89</v>
@@ -2852,7 +2852,7 @@
         <v>0.15490000000000001</v>
       </c>
       <c r="V25" s="2">
-        <v>9.2740000000000003E-2</v>
+        <v>0.17563999999999999</v>
       </c>
       <c r="W25" s="2">
         <v>0.252</v>
@@ -2926,7 +2926,7 @@
         <v>0.14380000000000001</v>
       </c>
       <c r="V26" s="2">
-        <v>0.10197000000000001</v>
+        <v>0.13286000000000001</v>
       </c>
       <c r="W26" s="2">
         <v>0.32900000000000001</v>
@@ -3000,7 +3000,7 @@
         <v>0.1179</v>
       </c>
       <c r="V27" s="2">
-        <v>0.12640999999999999</v>
+        <v>0.10056</v>
       </c>
       <c r="W27" s="2">
         <v>0.29799999999999999</v>
@@ -3074,7 +3074,7 @@
         <v>0.112</v>
       </c>
       <c r="V28" s="2">
-        <v>9.4420000000000004E-2</v>
+        <v>0.11817999999999999</v>
       </c>
       <c r="W28" s="2">
         <v>0.248</v>
@@ -3148,7 +3148,7 @@
         <v>0.13150000000000001</v>
       </c>
       <c r="V29" s="2">
-        <v>0.1051</v>
+        <v>0.14488999999999999</v>
       </c>
       <c r="W29" s="2">
         <v>0.26300000000000001</v>
@@ -3189,7 +3189,7 @@
         <v>712.7</v>
       </c>
       <c r="K30" s="1">
-        <v>19.399999999999999</v>
+        <v>19.3</v>
       </c>
       <c r="L30" s="11">
         <v>79.52</v>
@@ -3222,7 +3222,7 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="V30" s="2">
-        <v>7.6480000000000006E-2</v>
+        <v>0.10584</v>
       </c>
       <c r="W30" s="2">
         <v>0.26500000000000001</v>
@@ -3296,7 +3296,7 @@
         <v>0.1132</v>
       </c>
       <c r="V31" s="2">
-        <v>0.10957</v>
+        <v>0.13053000000000001</v>
       </c>
       <c r="W31" s="2">
         <v>0.26400000000000001</v>
@@ -3370,7 +3370,7 @@
         <v>0.14330000000000001</v>
       </c>
       <c r="V32" s="2">
-        <v>0.14910000000000001</v>
+        <v>0.13009999999999999</v>
       </c>
       <c r="W32" s="2">
         <v>0.39</v>
@@ -3444,7 +3444,7 @@
         <v>0.1096</v>
       </c>
       <c r="V33" s="2">
-        <v>0.14964</v>
+        <v>0.11038000000000001</v>
       </c>
       <c r="W33" s="2">
         <v>0.35599999999999998</v>
@@ -3518,7 +3518,7 @@
         <v>0.1234</v>
       </c>
       <c r="V34" s="2">
-        <v>0.11768000000000001</v>
+        <v>0.15054000000000001</v>
       </c>
       <c r="W34" s="2">
         <v>0.35199999999999998</v>
@@ -3559,7 +3559,7 @@
         <v>690.3</v>
       </c>
       <c r="K35" s="1">
-        <v>19.2</v>
+        <v>18.8</v>
       </c>
       <c r="L35" s="11">
         <v>79.88</v>
@@ -3592,7 +3592,7 @@
         <v>0.1147</v>
       </c>
       <c r="V35" s="2">
-        <v>0.11817999999999999</v>
+        <v>9.2740000000000003E-2</v>
       </c>
       <c r="W35" s="2">
         <v>0.379</v>
@@ -3633,7 +3633,7 @@
         <v>838.4</v>
       </c>
       <c r="K36" s="1">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="L36" s="11">
         <v>76.930000000000007</v>
@@ -3666,7 +3666,7 @@
         <v>0.14879999999999999</v>
       </c>
       <c r="V36" s="2">
-        <v>0.14904000000000001</v>
+        <v>0.10197000000000001</v>
       </c>
       <c r="W36" s="2">
         <v>0.40500000000000003</v>
@@ -3740,7 +3740,7 @@
         <v>0.15440000000000001</v>
       </c>
       <c r="V37" s="2">
-        <v>0.13042000000000001</v>
+        <v>0.14904000000000001</v>
       </c>
       <c r="W37" s="2">
         <v>0.34100000000000003</v>
@@ -3814,7 +3814,7 @@
         <v>0.14349999999999999</v>
       </c>
       <c r="V38" s="2">
-        <v>0.13023999999999999</v>
+        <v>0.12640999999999999</v>
       </c>
       <c r="W38" s="2">
         <v>0.28599999999999998</v>
@@ -3888,7 +3888,7 @@
         <v>0.14369999999999999</v>
       </c>
       <c r="V39" s="2">
-        <v>0.16209999999999999</v>
+        <v>9.4420000000000004E-2</v>
       </c>
       <c r="W39" s="2">
         <v>0.34200000000000003</v>
@@ -3929,7 +3929,7 @@
         <v>696.7</v>
       </c>
       <c r="K40" s="1">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="L40" s="11">
         <v>79.92</v>
@@ -3962,7 +3962,7 @@
         <v>0.1227</v>
       </c>
       <c r="V40" s="2">
-        <v>0.16175999999999999</v>
+        <v>0.1051</v>
       </c>
       <c r="W40" s="2">
         <v>0.28399999999999997</v>
@@ -4003,7 +4003,7 @@
         <v>821.6</v>
       </c>
       <c r="K41" s="1">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="L41" s="11">
         <v>77.010000000000005</v>
@@ -4036,7 +4036,7 @@
         <v>0.14799999999999999</v>
       </c>
       <c r="V41" s="2">
-        <v>0.18199000000000001</v>
+        <v>0.15795999999999999</v>
       </c>
       <c r="W41" s="2">
         <v>0.33600000000000002</v>
@@ -4077,7 +4077,7 @@
         <v>715.9</v>
       </c>
       <c r="K42" s="1">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="L42" s="11">
         <v>79.05</v>
@@ -4110,7 +4110,7 @@
         <v>9.35E-2</v>
       </c>
       <c r="V42" s="2">
-        <v>0.12126000000000001</v>
+        <v>0.10505</v>
       </c>
       <c r="W42" s="2">
         <v>0.34100000000000003</v>
@@ -4184,7 +4184,7 @@
         <v>0.16</v>
       </c>
       <c r="V43" s="2">
-        <v>0.17563999999999999</v>
+        <v>0.15812000000000001</v>
       </c>
       <c r="W43" s="2">
         <v>0.41099999999999998</v>
@@ -4258,7 +4258,7 @@
         <v>0.1169</v>
       </c>
       <c r="V44" s="2">
-        <v>0.13286000000000001</v>
+        <v>0.16847000000000001</v>
       </c>
       <c r="W44" s="2">
         <v>0.36599999999999999</v>
@@ -4299,7 +4299,7 @@
         <v>691.8</v>
       </c>
       <c r="K45" s="1">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="L45" s="11">
         <v>79.88</v>
@@ -4332,7 +4332,7 @@
         <v>0.12239999999999999</v>
       </c>
       <c r="V45" s="2">
-        <v>0.15054000000000001</v>
+        <v>0.13042000000000001</v>
       </c>
       <c r="W45" s="2">
         <v>0.34300000000000003</v>
@@ -4373,7 +4373,7 @@
         <v>706.5</v>
       </c>
       <c r="K46" s="1">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="L46" s="11">
         <v>79.680000000000007</v>
@@ -4406,7 +4406,7 @@
         <v>0.12089999999999999</v>
       </c>
       <c r="V46" s="2">
-        <v>0.15795999999999999</v>
+        <v>7.6480000000000006E-2</v>
       </c>
       <c r="W46" s="2">
         <v>0.35199999999999998</v>
@@ -4480,7 +4480,7 @@
         <v>0.12139999999999999</v>
       </c>
       <c r="V47" s="2">
-        <v>0.10505</v>
+        <v>0.13023999999999999</v>
       </c>
       <c r="W47" s="2">
         <v>0.26600000000000001</v>
@@ -4554,7 +4554,7 @@
         <v>0.1196</v>
       </c>
       <c r="V48" s="2">
-        <v>0.15812000000000001</v>
+        <v>0.10957</v>
       </c>
       <c r="W48" s="2">
         <v>0.313</v>
@@ -4595,7 +4595,7 @@
         <v>953.8</v>
       </c>
       <c r="K49" s="1">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="L49" s="11">
         <v>74.790000000000006</v>
@@ -4628,7 +4628,7 @@
         <v>0.18940000000000001</v>
       </c>
       <c r="V49" s="2">
-        <v>0.16847000000000001</v>
+        <v>0.14910000000000001</v>
       </c>
       <c r="W49" s="2">
         <v>0.33700000000000002</v>
@@ -4743,7 +4743,7 @@
         <v>749.6</v>
       </c>
       <c r="K51" s="1">
-        <v>25.2</v>
+        <v>24.8</v>
       </c>
       <c r="L51" s="11">
         <v>79</v>

--- a/data2/All States All Data Collected.xlsx
+++ b/data2/All States All Data Collected.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jillyutahh/github/gal/Analyzing-Medicare-Expansion/data2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A555968-5B9B-2346-9F57-56F12F656406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5E8A81-8D7C-344E-B8A1-8EA77AAFECFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34900" yWindow="-3560" windowWidth="26840" windowHeight="15940" xr2:uid="{02E46638-B89A-9A4E-94A9-A89CDE14B1CE}"/>
+    <workbookView xWindow="-37960" yWindow="-1100" windowWidth="26840" windowHeight="15940" xr2:uid="{02E46638-B89A-9A4E-94A9-A89CDE14B1CE}"/>
   </bookViews>
   <sheets>
     <sheet name="All States" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All States'!$A$1:$V$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All States'!$A$1:$V$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -645,7 +645,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -666,6 +666,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -984,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B580A4D7-BAE7-3D4C-B506-0491120E06C5}">
   <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="V55" sqref="V55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1153,10 +1154,10 @@
         <v>0.16209999999999999</v>
       </c>
       <c r="W2" s="2">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="X2" s="2">
-        <v>0.120369</v>
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="X2" s="12">
+        <v>0.16</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1227,10 +1228,10 @@
         <v>0.13649</v>
       </c>
       <c r="W3" s="2">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="X3" s="2">
-        <v>0.10614700000000001</v>
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="X3" s="12">
+        <v>0.16</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1301,10 +1302,10 @@
         <v>0.13306000000000001</v>
       </c>
       <c r="W4" s="2">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="X4" s="2">
-        <v>8.2838999999999996E-2</v>
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="X4" s="12">
+        <v>0.15</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1375,10 +1376,10 @@
         <v>0.14871000000000001</v>
       </c>
       <c r="W5" s="2">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="X5" s="2">
-        <v>7.1596999999999994E-2</v>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="X5" s="12">
+        <v>0.12</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1449,10 +1450,10 @@
         <v>0.11855</v>
       </c>
       <c r="W6" s="2">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="X6" s="2">
-        <v>7.6537999999999995E-2</v>
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="X6" s="12">
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1523,10 +1524,10 @@
         <v>0.12155000000000001</v>
       </c>
       <c r="W7" s="2">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="X7" s="2">
-        <v>5.3395999999999999E-2</v>
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="X7" s="12">
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1597,10 +1598,10 @@
         <v>9.1969999999999996E-2</v>
       </c>
       <c r="W8" s="2">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="X8" s="2">
-        <v>5.7541000000000002E-2</v>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="X8" s="12">
+        <v>0.08</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1671,10 +1672,10 @@
         <v>0.10553999999999999</v>
       </c>
       <c r="W9" s="2">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="X9" s="2">
-        <v>3.8517000000000003E-2</v>
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="X9" s="12">
+        <v>0.08</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1745,10 +1746,10 @@
         <v>0.16175999999999999</v>
       </c>
       <c r="W10" s="2">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="X10" s="2">
-        <v>7.0565000000000003E-2</v>
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="X10" s="12">
+        <v>0.19</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1819,10 +1820,10 @@
         <v>0.18199000000000001</v>
       </c>
       <c r="W11" s="2">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="X11" s="2">
-        <v>8.4664000000000003E-2</v>
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="X11" s="12">
+        <v>0.19</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1893,10 +1894,10 @@
         <v>7.3459999999999998E-2</v>
       </c>
       <c r="W12" s="2">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="X12" s="2">
-        <v>4.9429000000000001E-2</v>
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="X12" s="12">
+        <v>0.05</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1967,10 +1968,10 @@
         <v>0.14964</v>
       </c>
       <c r="W13" s="2">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="X13" s="2">
-        <v>5.5742E-2</v>
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="X13" s="12">
+        <v>0.16</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -2041,10 +2042,10 @@
         <v>0.11501</v>
       </c>
       <c r="W14" s="2">
-        <v>0.371</v>
-      </c>
-      <c r="X14" s="2">
-        <v>7.9367999999999994E-2</v>
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="X14" s="12">
+        <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -2115,10 +2116,10 @@
         <v>0.12174</v>
       </c>
       <c r="W15" s="2">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="X15" s="2">
-        <v>5.9643000000000002E-2</v>
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="X15" s="12">
+        <v>0.11</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -2189,10 +2190,10 @@
         <v>7.7450000000000005E-2</v>
       </c>
       <c r="W16" s="2">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="X16" s="2">
-        <v>2.7210000000000002E-2</v>
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="X16" s="12">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -2265,8 +2266,8 @@
       <c r="W17" s="2">
         <v>0.34100000000000003</v>
       </c>
-      <c r="X17" s="2">
-        <v>5.3886999999999997E-2</v>
+      <c r="X17" s="12">
+        <v>0.12</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -2337,10 +2338,10 @@
         <v>0.12637999999999999</v>
       </c>
       <c r="W18" s="2">
-        <v>0.247</v>
-      </c>
-      <c r="X18" s="2">
-        <v>4.3484000000000002E-2</v>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="X18" s="12">
+        <v>0.08</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -2411,10 +2412,10 @@
         <v>0.14824999999999999</v>
       </c>
       <c r="W19" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="X19" s="2">
-        <v>8.1167000000000003E-2</v>
+        <v>0.371</v>
+      </c>
+      <c r="X19" s="12">
+        <v>0.12</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -2485,10 +2486,10 @@
         <v>0.11768000000000001</v>
       </c>
       <c r="W20" s="2">
-        <v>0.318</v>
-      </c>
-      <c r="X20" s="2">
-        <v>0.11351600000000001</v>
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="X20" s="12">
+        <v>0.11</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -2559,10 +2560,10 @@
         <v>0.11234</v>
       </c>
       <c r="W21" s="2">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="X21" s="2">
-        <v>5.2075000000000003E-2</v>
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="X21" s="12">
+        <v>0.08</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -2633,10 +2634,10 @@
         <v>8.7730000000000002E-2</v>
       </c>
       <c r="W22" s="2">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="X22" s="2">
-        <v>7.4195999999999998E-2</v>
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="X22" s="12">
+        <v>0.04</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -2707,10 +2708,10 @@
         <v>0.11794</v>
       </c>
       <c r="W23" s="2">
-        <v>0.218</v>
-      </c>
-      <c r="X23" s="2">
-        <v>9.3356999999999996E-2</v>
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="X23" s="12">
+        <v>0.08</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -2781,10 +2782,10 @@
         <v>0.10027</v>
       </c>
       <c r="W24" s="2">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="X24" s="2">
-        <v>5.2948000000000002E-2</v>
+        <v>0.247</v>
+      </c>
+      <c r="X24" s="12">
+        <v>0.06</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -2855,10 +2856,10 @@
         <v>0.17563999999999999</v>
       </c>
       <c r="W25" s="2">
-        <v>0.252</v>
-      </c>
-      <c r="X25" s="2">
-        <v>7.7041999999999999E-2</v>
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="X25" s="12">
+        <v>0.19</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -2929,10 +2930,10 @@
         <v>0.13286000000000001</v>
       </c>
       <c r="W26" s="2">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="X26" s="2">
-        <v>6.4756999999999995E-2</v>
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="X26" s="12">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -3003,10 +3004,10 @@
         <v>0.10056</v>
       </c>
       <c r="W27" s="2">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="X27" s="2">
-        <v>7.1975999999999998E-2</v>
+        <v>0.33</v>
+      </c>
+      <c r="X27" s="12">
+        <v>0.12</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -3077,10 +3078,10 @@
         <v>0.11817999999999999</v>
       </c>
       <c r="W28" s="2">
-        <v>0.248</v>
-      </c>
-      <c r="X28" s="2">
-        <v>5.5889000000000001E-2</v>
+        <v>0.379</v>
+      </c>
+      <c r="X28" s="12">
+        <v>0.12</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -3151,10 +3152,10 @@
         <v>0.14488999999999999</v>
       </c>
       <c r="W29" s="2">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="X29" s="2">
-        <v>4.0294999999999997E-2</v>
+        <v>0.318</v>
+      </c>
+      <c r="X29" s="12">
+        <v>0.15</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -3225,10 +3226,10 @@
         <v>0.10584</v>
       </c>
       <c r="W30" s="2">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="X30" s="2">
-        <v>4.0721E-2</v>
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="X30" s="12">
+        <v>0.08</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -3299,10 +3300,10 @@
         <v>0.13053000000000001</v>
       </c>
       <c r="W31" s="2">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="X31" s="2">
-        <v>6.5377000000000005E-2</v>
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="X31" s="12">
+        <v>0.11</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -3373,10 +3374,10 @@
         <v>0.13009999999999999</v>
       </c>
       <c r="W32" s="2">
-        <v>0.39</v>
-      </c>
-      <c r="X32" s="2">
-        <v>6.1747000000000003E-2</v>
+        <v>0.218</v>
+      </c>
+      <c r="X32" s="12">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -3447,10 +3448,10 @@
         <v>0.11038000000000001</v>
       </c>
       <c r="W33" s="2">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="X33" s="2">
-        <v>0.11149000000000001</v>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="X33" s="12">
+        <v>0.08</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -3521,10 +3522,10 @@
         <v>0.15054000000000001</v>
       </c>
       <c r="W34" s="2">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="X34" s="2">
-        <v>7.8496999999999997E-2</v>
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="X34" s="12">
+        <v>0.16</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -3595,10 +3596,10 @@
         <v>9.2740000000000003E-2</v>
       </c>
       <c r="W35" s="2">
-        <v>0.379</v>
-      </c>
-      <c r="X35" s="2">
-        <v>8.4567000000000003E-2</v>
+        <v>0.252</v>
+      </c>
+      <c r="X35" s="12">
+        <v>0.1</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -3669,10 +3670,10 @@
         <v>0.10197000000000001</v>
       </c>
       <c r="W36" s="2">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="X36" s="2">
-        <v>0.136629</v>
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="X36" s="12">
+        <v>0.09</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -3743,10 +3744,10 @@
         <v>0.14904000000000001</v>
       </c>
       <c r="W37" s="2">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="X37" s="2">
-        <v>8.9924000000000004E-2</v>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="X37" s="12">
+        <v>0.2</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -3817,10 +3818,10 @@
         <v>0.12640999999999999</v>
       </c>
       <c r="W38" s="2">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="X38" s="2">
-        <v>8.6832999999999994E-2</v>
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="X38" s="12">
+        <v>0.11</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -3891,10 +3892,10 @@
         <v>9.4420000000000004E-2</v>
       </c>
       <c r="W39" s="2">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="X39" s="2">
-        <v>0.101714</v>
+        <v>0.248</v>
+      </c>
+      <c r="X39" s="12">
+        <v>0.08</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -3965,10 +3966,10 @@
         <v>0.1051</v>
       </c>
       <c r="W40" s="2">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="X40" s="2">
-        <v>0.13152800000000001</v>
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="X40" s="12">
+        <v>0.06</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -4039,10 +4040,10 @@
         <v>0.15795999999999999</v>
       </c>
       <c r="W41" s="2">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="X41" s="2">
-        <v>0.13774700000000001</v>
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="X41" s="12">
+        <v>0.16</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -4113,10 +4114,10 @@
         <v>0.10505</v>
       </c>
       <c r="W42" s="2">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="X42" s="2">
-        <v>8.7204000000000004E-2</v>
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="X42" s="12">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -4187,10 +4188,10 @@
         <v>0.15812000000000001</v>
       </c>
       <c r="W43" s="2">
-        <v>0.41099999999999998</v>
-      </c>
-      <c r="X43" s="2">
-        <v>0.122517</v>
+        <v>0.313</v>
+      </c>
+      <c r="X43" s="12">
+        <v>0.15</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -4261,10 +4262,10 @@
         <v>0.16847000000000001</v>
       </c>
       <c r="W44" s="2">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="X44" s="2">
-        <v>9.3789999999999998E-2</v>
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="X44" s="12">
+        <v>0.24</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -4335,10 +4336,10 @@
         <v>0.13042000000000001</v>
       </c>
       <c r="W45" s="2">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="X45" s="2">
-        <v>0.108529</v>
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="X45" s="12">
+        <v>0.12</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -4409,10 +4410,10 @@
         <v>7.6480000000000006E-2</v>
       </c>
       <c r="W46" s="2">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="X46" s="2">
-        <v>0.104895</v>
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="X46" s="12">
+        <v>0.06</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -4483,10 +4484,10 @@
         <v>0.13023999999999999</v>
       </c>
       <c r="W47" s="2">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="X47" s="2">
-        <v>9.3584000000000001E-2</v>
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="X47" s="12">
+        <v>0.12</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -4557,10 +4558,10 @@
         <v>0.10957</v>
       </c>
       <c r="W48" s="2">
-        <v>0.313</v>
-      </c>
-      <c r="X48" s="2">
-        <v>0.10177600000000001</v>
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="X48" s="12">
+        <v>0.1</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -4631,10 +4632,10 @@
         <v>0.14910000000000001</v>
       </c>
       <c r="W49" s="2">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="X49" s="2">
-        <v>0.176901</v>
+        <v>0.39</v>
+      </c>
+      <c r="X49" s="12">
+        <v>0.09</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -4707,8 +4708,8 @@
       <c r="W50" s="2">
         <v>0.29299999999999998</v>
       </c>
-      <c r="X50" s="2">
-        <v>5.5386999999999999E-2</v>
+      <c r="X50" s="12">
+        <v>0.08</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -4781,8 +4782,8 @@
       <c r="W51" s="2">
         <v>0.436</v>
       </c>
-      <c r="X51" s="2">
-        <v>0.105625</v>
+      <c r="X51" s="12">
+        <v>0.15</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
@@ -4794,9 +4795,12 @@
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
+      <c r="X52" s="12">
+        <v>0.1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V51" xr:uid="{77ACD372-0FFC-CE47-928D-5B86AD2E9061}"/>
+  <autoFilter ref="A1:V52" xr:uid="{77ACD372-0FFC-CE47-928D-5B86AD2E9061}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U52">
     <sortCondition ref="A2:A52"/>
   </sortState>
